--- a/concepts/climate-related-hazards/input.xlsx
+++ b/concepts/climate-related-hazards/input.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="488">
   <si>
     <t>Pattern name (optional)</t>
   </si>
@@ -351,6 +351,27 @@
     <t>whirlwind</t>
   </si>
   <si>
+    <t>Heavy rain</t>
+  </si>
+  <si>
+    <t>heavy,extreme</t>
+  </si>
+  <si>
+    <t>rain,precipitation</t>
+  </si>
+  <si>
+    <t>Extreme events</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>Monsoons</t>
+  </si>
+  <si>
+    <t>monsoon</t>
+  </si>
+  <si>
     <t>Terrestrial hazards</t>
   </si>
   <si>
@@ -450,6 +471,12 @@
     <t>Land degradation</t>
   </si>
   <si>
+    <t>Land erosion</t>
+  </si>
+  <si>
+    <t>erosion</t>
+  </si>
+  <si>
     <t>Soil degradation</t>
   </si>
   <si>
@@ -471,24 +498,27 @@
     <t>Biodiversity loss</t>
   </si>
   <si>
-    <t>biodiversity</t>
+    <t>biodiversity,species</t>
+  </si>
+  <si>
+    <t>loss,destruction,damage,extinction</t>
+  </si>
+  <si>
+    <t>loss,damage,extinction</t>
+  </si>
+  <si>
+    <t>of,to</t>
+  </si>
+  <si>
+    <t>biological</t>
+  </si>
+  <si>
+    <t>diversity</t>
   </si>
   <si>
     <t>loss,destruction,damage</t>
   </si>
   <si>
-    <t>loss,damage</t>
-  </si>
-  <si>
-    <t>of,to</t>
-  </si>
-  <si>
-    <t>biological</t>
-  </si>
-  <si>
-    <t>diversity</t>
-  </si>
-  <si>
     <t>Invasive species</t>
   </si>
   <si>
@@ -624,9 +654,6 @@
     <t>Soil erosion</t>
   </si>
   <si>
-    <t>erosion</t>
-  </si>
-  <si>
     <t>Coastal erosion</t>
   </si>
   <si>
@@ -660,6 +687,24 @@
     <t>eutrophication</t>
   </si>
   <si>
+    <t>Glacier melt</t>
+  </si>
+  <si>
+    <t>glacier,glacial</t>
+  </si>
+  <si>
+    <t>melt</t>
+  </si>
+  <si>
+    <t>glacier</t>
+  </si>
+  <si>
+    <t>Riverine erosion</t>
+  </si>
+  <si>
+    <t>riverine</t>
+  </si>
+  <si>
     <t>Health hazards</t>
   </si>
   <si>
@@ -669,6 +714,15 @@
     <t>to</t>
   </si>
   <si>
+    <t>Spread of disease</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
     <t>Mental health crisis</t>
   </si>
   <si>
@@ -693,9 +747,6 @@
     <t>infectious</t>
   </si>
   <si>
-    <t>disease</t>
-  </si>
-  <si>
     <t>pandemic,plague,epidemic</t>
   </si>
   <si>
@@ -1345,6 +1396,15 @@
   </si>
   <si>
     <t>failure,breakdown,collapse,breach</t>
+  </si>
+  <si>
+    <t>Network failure</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>failure,breakdown,collapse,breach,damage,fault,problem</t>
   </si>
   <si>
     <r>
@@ -1808,6 +1868,7 @@
     <col customWidth="1" min="4" max="4" width="33.13"/>
     <col customWidth="1" min="6" max="6" width="18.38"/>
     <col customWidth="1" min="7" max="7" width="13.63"/>
+    <col customWidth="1" min="10" max="10" width="14.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4450,14 +4511,14 @@
     <row r="52">
       <c r="A52" s="13"/>
       <c r="B52" s="9" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>113</v>
@@ -4465,10 +4526,10 @@
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
@@ -4501,22 +4562,26 @@
     <row r="53">
       <c r="A53" s="13"/>
       <c r="B53" s="9" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="I53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
@@ -4548,24 +4613,22 @@
     <row r="54">
       <c r="A54" s="13"/>
       <c r="B54" s="9" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
@@ -4597,22 +4660,26 @@
     <row r="55">
       <c r="A55" s="13"/>
       <c r="B55" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
+      <c r="I55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
@@ -4644,26 +4711,22 @@
     <row r="56">
       <c r="A56" s="13"/>
       <c r="B56" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
@@ -4695,46 +4758,32 @@
     <row r="57">
       <c r="A57" s="13"/>
       <c r="B57" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I57" s="12"/>
       <c r="J57" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
-      <c r="Q57" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
@@ -4758,26 +4807,22 @@
     <row r="58">
       <c r="A58" s="13"/>
       <c r="B58" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
@@ -4809,22 +4854,26 @@
     <row r="59">
       <c r="A59" s="13"/>
       <c r="B59" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
+      <c r="I59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
@@ -4856,7 +4905,7 @@
     <row r="60">
       <c r="A60" s="13"/>
       <c r="B60" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="9" t="s">
@@ -4866,24 +4915,36 @@
         <v>17</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="11" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
+      <c r="Q60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
@@ -4907,17 +4968,17 @@
     <row r="61">
       <c r="A61" s="13"/>
       <c r="B61" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -4925,7 +4986,7 @@
         <v>17</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
@@ -4958,26 +5019,22 @@
     <row r="62">
       <c r="A62" s="13"/>
       <c r="B62" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
@@ -5009,17 +5066,17 @@
     <row r="63">
       <c r="A63" s="13"/>
       <c r="B63" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -5027,7 +5084,7 @@
         <v>17</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -5060,22 +5117,26 @@
     <row r="64">
       <c r="A64" s="13"/>
       <c r="B64" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
+      <c r="I64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
@@ -5107,17 +5168,17 @@
     <row r="65">
       <c r="A65" s="13"/>
       <c r="B65" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -5125,7 +5186,7 @@
         <v>17</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -5158,17 +5219,17 @@
     <row r="66">
       <c r="A66" s="13"/>
       <c r="B66" s="9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -5176,7 +5237,7 @@
         <v>17</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
@@ -5209,46 +5270,30 @@
     <row r="67">
       <c r="A67" s="13"/>
       <c r="B67" s="9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
-      <c r="I67" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O67" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P67" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q67" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R67" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
@@ -5272,25 +5317,25 @@
     <row r="68">
       <c r="A68" s="13"/>
       <c r="B68" s="9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
@@ -5323,17 +5368,17 @@
     <row r="69">
       <c r="A69" s="13"/>
       <c r="B69" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -5341,16 +5386,12 @@
         <v>17</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N69" s="11" t="s">
-        <v>141</v>
-      </c>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
@@ -5378,30 +5419,46 @@
     <row r="70">
       <c r="A70" s="13"/>
       <c r="B70" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
+      <c r="I70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
+      <c r="M70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
@@ -5425,7 +5482,7 @@
     <row r="71">
       <c r="A71" s="13"/>
       <c r="B71" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="9" t="s">
@@ -5435,15 +5492,15 @@
         <v>17</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
@@ -5476,17 +5533,17 @@
     <row r="72">
       <c r="A72" s="13"/>
       <c r="B72" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -5494,7 +5551,7 @@
         <v>17</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
@@ -5502,20 +5559,12 @@
         <v>17</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O72" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P72" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R72" s="11" t="s">
-        <v>107</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
       <c r="S72" s="12"/>
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
@@ -5539,26 +5588,22 @@
     <row r="73">
       <c r="A73" s="13"/>
       <c r="B73" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>135</v>
-      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
@@ -5590,17 +5635,17 @@
     <row r="74">
       <c r="A74" s="13"/>
       <c r="B74" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -5608,28 +5653,16 @@
         <v>17</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O74" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P74" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q74" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R74" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
       <c r="S74" s="12"/>
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
@@ -5653,17 +5686,17 @@
     <row r="75">
       <c r="A75" s="13"/>
       <c r="B75" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -5671,16 +5704,28 @@
         <v>17</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
+      <c r="M75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R75" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
@@ -5704,17 +5749,17 @@
     <row r="76">
       <c r="A76" s="13"/>
       <c r="B76" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
@@ -5730,20 +5775,12 @@
         <v>17</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O76" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P76" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q76" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R76" s="11" t="s">
-        <v>146</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
       <c r="S76" s="12"/>
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
@@ -5767,17 +5804,17 @@
     <row r="77">
       <c r="A77" s="13"/>
       <c r="B77" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -5785,7 +5822,7 @@
         <v>17</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
@@ -5818,17 +5855,17 @@
     <row r="78">
       <c r="A78" s="13"/>
       <c r="B78" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -5836,7 +5873,7 @@
         <v>17</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
@@ -5869,34 +5906,46 @@
     <row r="79">
       <c r="A79" s="13"/>
       <c r="B79" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
+      <c r="M79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R79" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="S79" s="12"/>
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
@@ -5920,34 +5969,30 @@
     <row r="80">
       <c r="A80" s="13"/>
       <c r="B80" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -5975,17 +6020,17 @@
     <row r="81">
       <c r="A81" s="13"/>
       <c r="B81" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -5993,20 +6038,28 @@
         <v>17</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q81" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R81" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
       <c r="U81" s="12"/>
@@ -6030,42 +6083,34 @@
     <row r="82">
       <c r="A82" s="13"/>
       <c r="B82" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J82" s="11" t="s">
         <v>155</v>
       </c>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>156</v>
-      </c>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
-      <c r="Q82" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R82" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
@@ -6089,11 +6134,11 @@
     <row r="83">
       <c r="A83" s="13"/>
       <c r="B83" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>17</v>
@@ -6107,7 +6152,7 @@
         <v>17</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
@@ -6140,25 +6185,25 @@
     <row r="84">
       <c r="A84" s="13"/>
       <c r="B84" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
@@ -6191,26 +6236,34 @@
     <row r="85">
       <c r="A85" s="13"/>
       <c r="B85" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
+      <c r="I85" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
+      <c r="M85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -6238,17 +6291,17 @@
     <row r="86">
       <c r="A86" s="13"/>
       <c r="B86" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -6256,12 +6309,16 @@
         <v>17</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
+      <c r="M86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -6289,34 +6346,42 @@
     <row r="87">
       <c r="A87" s="13"/>
       <c r="B87" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
+      <c r="M87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
+      <c r="Q87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R87" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="S87" s="12"/>
       <c r="T87" s="12"/>
       <c r="U87" s="12"/>
@@ -6340,17 +6405,17 @@
     <row r="88">
       <c r="A88" s="13"/>
       <c r="B88" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -6358,7 +6423,7 @@
         <v>17</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
@@ -6391,7 +6456,7 @@
     <row r="89">
       <c r="A89" s="13"/>
       <c r="B89" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="9" t="s">
@@ -6409,7 +6474,7 @@
         <v>17</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
@@ -6442,26 +6507,22 @@
     <row r="90">
       <c r="A90" s="13"/>
       <c r="B90" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
-      <c r="I90" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>167</v>
-      </c>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
@@ -6493,17 +6554,17 @@
     <row r="91">
       <c r="A91" s="13"/>
       <c r="B91" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -6511,16 +6572,12 @@
         <v>17</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
-      <c r="M91" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N91" s="11" t="s">
-        <v>167</v>
-      </c>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -6548,22 +6605,26 @@
     <row r="92">
       <c r="A92" s="13"/>
       <c r="B92" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
+      <c r="I92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
@@ -6595,17 +6656,17 @@
     <row r="93">
       <c r="A93" s="13"/>
       <c r="B93" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -6613,7 +6674,7 @@
         <v>17</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
@@ -6646,22 +6707,26 @@
     <row r="94">
       <c r="A94" s="13"/>
       <c r="B94" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C94" s="14"/>
       <c r="D94" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
+      <c r="I94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
@@ -6693,17 +6758,17 @@
     <row r="95">
       <c r="A95" s="13"/>
       <c r="B95" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -6711,7 +6776,7 @@
         <v>17</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
@@ -6744,17 +6809,17 @@
     <row r="96">
       <c r="A96" s="13"/>
       <c r="B96" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -6762,12 +6827,16 @@
         <v>17</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
+      <c r="M96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -6795,17 +6864,17 @@
     <row r="97">
       <c r="A97" s="13"/>
       <c r="B97" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
@@ -6842,17 +6911,17 @@
     <row r="98">
       <c r="A98" s="13"/>
       <c r="B98" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -6860,7 +6929,7 @@
         <v>17</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
@@ -6893,17 +6962,17 @@
     <row r="99">
       <c r="A99" s="13"/>
       <c r="B99" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -6940,17 +7009,17 @@
     <row r="100">
       <c r="A100" s="13"/>
       <c r="B100" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
@@ -6958,7 +7027,7 @@
         <v>17</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
@@ -6991,22 +7060,26 @@
     <row r="101">
       <c r="A101" s="13"/>
       <c r="B101" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
+      <c r="I101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
@@ -7038,26 +7111,22 @@
     <row r="102">
       <c r="A102" s="13"/>
       <c r="B102" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
-      <c r="I102" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J102" s="11" t="s">
-        <v>167</v>
-      </c>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
@@ -7089,17 +7158,17 @@
     <row r="103">
       <c r="A103" s="13"/>
       <c r="B103" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
@@ -7107,16 +7176,12 @@
         <v>17</v>
       </c>
       <c r="J103" s="11" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
-      <c r="M103" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N103" s="11" t="s">
-        <v>167</v>
-      </c>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -7144,17 +7209,17 @@
     <row r="104">
       <c r="A104" s="13"/>
       <c r="B104" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
@@ -7191,17 +7256,17 @@
     <row r="105">
       <c r="A105" s="13"/>
       <c r="B105" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
@@ -7209,28 +7274,16 @@
         <v>17</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
-      <c r="M105" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N105" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O105" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P105" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q105" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R105" s="11" t="s">
-        <v>195</v>
-      </c>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
       <c r="S105" s="12"/>
       <c r="T105" s="12"/>
       <c r="U105" s="12"/>
@@ -7254,26 +7307,22 @@
     <row r="106">
       <c r="A106" s="13"/>
       <c r="B106" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C106" s="14"/>
       <c r="D106" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
-      <c r="I106" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J106" s="11" t="s">
-        <v>194</v>
-      </c>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
@@ -7305,17 +7354,17 @@
     <row r="107">
       <c r="A107" s="13"/>
       <c r="B107" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -7323,11 +7372,11 @@
         <v>17</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
-      <c r="M107" s="11"/>
+      <c r="M107" s="12"/>
       <c r="N107" s="12"/>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
@@ -7356,17 +7405,17 @@
     <row r="108">
       <c r="A108" s="13"/>
       <c r="B108" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -7374,28 +7423,20 @@
         <v>17</v>
       </c>
       <c r="J108" s="11" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O108" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P108" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q108" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R108" s="11" t="s">
-        <v>197</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
       <c r="U108" s="12"/>
@@ -7419,26 +7460,22 @@
     <row r="109">
       <c r="A109" s="13"/>
       <c r="B109" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
-      <c r="I109" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J109" s="11" t="s">
-        <v>200</v>
-      </c>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
@@ -7470,17 +7507,17 @@
     <row r="110">
       <c r="A110" s="13"/>
       <c r="B110" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="9" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -7488,16 +7525,28 @@
         <v>17</v>
       </c>
       <c r="J110" s="11" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
+      <c r="M110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O110" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P110" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R110" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
       <c r="U110" s="12"/>
@@ -7521,17 +7570,17 @@
     <row r="111">
       <c r="A111" s="13"/>
       <c r="B111" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="9" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -7539,28 +7588,16 @@
         <v>17</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
-      <c r="M111" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N111" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O111" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P111" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q111" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R111" s="11" t="s">
-        <v>199</v>
-      </c>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
@@ -7584,17 +7621,17 @@
     <row r="112">
       <c r="A112" s="13"/>
       <c r="B112" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -7602,11 +7639,11 @@
         <v>17</v>
       </c>
       <c r="J112" s="11" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
+      <c r="M112" s="11"/>
       <c r="N112" s="12"/>
       <c r="O112" s="12"/>
       <c r="P112" s="12"/>
@@ -7635,17 +7672,17 @@
     <row r="113">
       <c r="A113" s="13"/>
       <c r="B113" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -7673,7 +7710,7 @@
         <v>19</v>
       </c>
       <c r="R113" s="11" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
@@ -7698,25 +7735,25 @@
     <row r="114">
       <c r="A114" s="13"/>
       <c r="B114" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
@@ -7749,17 +7786,17 @@
     <row r="115">
       <c r="A115" s="13"/>
       <c r="B115" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C115" s="14"/>
       <c r="D115" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -7767,28 +7804,16 @@
         <v>17</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
-      <c r="M115" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N115" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O115" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P115" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q115" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R115" s="11" t="s">
-        <v>208</v>
-      </c>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
@@ -7812,11 +7837,11 @@
     <row r="116">
       <c r="A116" s="13"/>
       <c r="B116" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>17</v>
@@ -7827,19 +7852,31 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
+      <c r="M116" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O116" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P116" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R116" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="S116" s="12"/>
       <c r="T116" s="12"/>
       <c r="U116" s="12"/>
@@ -7863,17 +7900,17 @@
     <row r="117">
       <c r="A117" s="13"/>
       <c r="B117" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -7881,16 +7918,12 @@
         <v>17</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
-      <c r="M117" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N117" s="11" t="s">
-        <v>210</v>
-      </c>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
       <c r="O117" s="12"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -7918,30 +7951,46 @@
     <row r="118">
       <c r="A118" s="13"/>
       <c r="B118" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
+      <c r="I118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
+      <c r="M118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O118" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P118" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R118" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
@@ -7965,29 +8014,29 @@
     <row r="119">
       <c r="A119" s="13"/>
       <c r="B119" s="9" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C119" s="14"/>
       <c r="D119" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
       <c r="I119" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
-      <c r="M119" s="11"/>
+      <c r="M119" s="12"/>
       <c r="N119" s="12"/>
       <c r="O119" s="12"/>
       <c r="P119" s="12"/>
@@ -8016,17 +8065,17 @@
     <row r="120">
       <c r="A120" s="13"/>
       <c r="B120" s="9" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -8034,7 +8083,7 @@
         <v>17</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
@@ -8042,12 +8091,20 @@
         <v>17</v>
       </c>
       <c r="N120" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="O120" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P120" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q120" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R120" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="S120" s="12"/>
       <c r="T120" s="12"/>
       <c r="U120" s="12"/>
@@ -8071,7 +8128,7 @@
     <row r="121">
       <c r="A121" s="13"/>
       <c r="B121" s="9" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="9" t="s">
@@ -8086,19 +8143,15 @@
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
-      <c r="M121" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N121" s="11" t="s">
-        <v>220</v>
-      </c>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
       <c r="O121" s="12"/>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
@@ -8126,42 +8179,38 @@
     <row r="122">
       <c r="A122" s="13"/>
       <c r="B122" s="9" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J122" s="11" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N122" s="11" t="s">
         <v>219</v>
       </c>
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R122" s="11" t="s">
-        <v>216</v>
-      </c>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
@@ -8185,7 +8234,7 @@
     <row r="123">
       <c r="A123" s="13"/>
       <c r="B123" s="9" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C123" s="14"/>
       <c r="D123" s="9" t="s">
@@ -8232,14 +8281,14 @@
     <row r="124">
       <c r="A124" s="13"/>
       <c r="B124" s="9" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="9" t="s">
         <v>224</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>225</v>
@@ -8247,7 +8296,7 @@
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J124" s="11" t="s">
         <v>226</v>
@@ -8283,22 +8332,26 @@
     <row r="125">
       <c r="A125" s="13"/>
       <c r="B125" s="9" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="9" t="s">
         <v>224</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
+      <c r="I125" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>227</v>
+      </c>
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
@@ -8330,29 +8383,29 @@
     <row r="126">
       <c r="A126" s="13"/>
       <c r="B126" s="9" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J126" s="11" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
+      <c r="M126" s="11"/>
       <c r="N126" s="12"/>
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
@@ -8381,46 +8434,34 @@
     <row r="127">
       <c r="A127" s="13"/>
       <c r="B127" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="11" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K127" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L127" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M127" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N127" s="11" t="s">
-        <v>231</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="12"/>
       <c r="O127" s="12"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R127" s="11" t="s">
-        <v>229</v>
-      </c>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
       <c r="S127" s="12"/>
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
@@ -8444,17 +8485,17 @@
     <row r="128">
       <c r="A128" s="13"/>
       <c r="B128" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -8462,12 +8503,16 @@
         <v>17</v>
       </c>
       <c r="J128" s="11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
+      <c r="M128" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="O128" s="12"/>
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
@@ -8495,17 +8540,17 @@
     <row r="129">
       <c r="A129" s="13"/>
       <c r="B129" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -8513,15 +8558,19 @@
         <v>17</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="M129" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O129" s="12"/>
       <c r="P129" s="12"/>
@@ -8550,17 +8599,17 @@
     <row r="130">
       <c r="A130" s="13"/>
       <c r="B130" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E130" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -8568,15 +8617,15 @@
         <v>17</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
       <c r="M130" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N130" s="11" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="O130" s="12"/>
       <c r="P130" s="12"/>
@@ -8605,45 +8654,41 @@
     <row r="131">
       <c r="A131" s="13"/>
       <c r="B131" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="11" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K131" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L131" s="11" t="s">
-        <v>28</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
       <c r="M131" s="11" t="s">
         <v>17</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O131" s="12"/>
       <c r="P131" s="12"/>
       <c r="Q131" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R131" s="11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="S131" s="12"/>
       <c r="T131" s="12"/>
@@ -8668,46 +8713,30 @@
     <row r="132">
       <c r="A132" s="13"/>
       <c r="B132" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
-      <c r="I132" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J132" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K132" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L132" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M132" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N132" s="11" t="s">
-        <v>231</v>
-      </c>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
       <c r="O132" s="12"/>
       <c r="P132" s="12"/>
-      <c r="Q132" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R132" s="11" t="s">
-        <v>226</v>
-      </c>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
       <c r="U132" s="12"/>
@@ -8731,17 +8760,17 @@
     <row r="133">
       <c r="A133" s="13"/>
       <c r="B133" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C133" s="14"/>
       <c r="D133" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -8749,16 +8778,12 @@
         <v>17</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
-      <c r="M133" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N133" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
       <c r="O133" s="12"/>
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
@@ -8786,34 +8811,26 @@
     <row r="134">
       <c r="A134" s="13"/>
       <c r="B134" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C134" s="14"/>
       <c r="D134" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
-      <c r="I134" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J134" s="11" t="s">
-        <v>252</v>
-      </c>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
-      <c r="M134" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N134" s="11" t="s">
-        <v>253</v>
-      </c>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
       <c r="O134" s="12"/>
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
@@ -8841,25 +8858,25 @@
     <row r="135">
       <c r="A135" s="13"/>
       <c r="B135" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C135" s="14"/>
       <c r="D135" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
       <c r="I135" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
@@ -8892,34 +8909,46 @@
     <row r="136">
       <c r="A136" s="13"/>
       <c r="B136" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="9" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="11" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
-      <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N136" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="O136" s="12"/>
       <c r="P136" s="12"/>
-      <c r="Q136" s="12"/>
-      <c r="R136" s="12"/>
+      <c r="Q136" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R136" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="S136" s="12"/>
       <c r="T136" s="12"/>
       <c r="U136" s="12"/>
@@ -8943,17 +8972,17 @@
     <row r="137">
       <c r="A137" s="13"/>
       <c r="B137" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
@@ -8961,7 +8990,7 @@
         <v>17</v>
       </c>
       <c r="J137" s="11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K137" s="12"/>
       <c r="L137" s="12"/>
@@ -8994,17 +9023,17 @@
     <row r="138">
       <c r="A138" s="13"/>
       <c r="B138" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C138" s="14"/>
       <c r="D138" s="9" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
@@ -9012,12 +9041,16 @@
         <v>17</v>
       </c>
       <c r="J138" s="11" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
-      <c r="M138" s="12"/>
-      <c r="N138" s="12"/>
+      <c r="M138" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="O138" s="12"/>
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
@@ -9045,17 +9078,17 @@
     <row r="139">
       <c r="A139" s="13"/>
       <c r="B139" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C139" s="14"/>
       <c r="D139" s="9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -9063,12 +9096,16 @@
         <v>17</v>
       </c>
       <c r="J139" s="11" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
-      <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
+      <c r="M139" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N139" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="O139" s="12"/>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -9096,46 +9133,46 @@
     <row r="140">
       <c r="A140" s="13"/>
       <c r="B140" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C140" s="14"/>
       <c r="D140" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="H140" s="11" t="b">
-        <v>1</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
       <c r="I140" s="11" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="M140" s="11" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="O140" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="P140" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q140" s="12"/>
-      <c r="R140" s="12"/>
+        <v>260</v>
+      </c>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R140" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="S140" s="12"/>
       <c r="T140" s="12"/>
       <c r="U140" s="12"/>
@@ -9159,30 +9196,46 @@
     <row r="141">
       <c r="A141" s="13"/>
       <c r="B141" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C141" s="14"/>
       <c r="D141" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
+      <c r="I141" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="O141" s="12"/>
       <c r="P141" s="12"/>
-      <c r="Q141" s="12"/>
-      <c r="R141" s="12"/>
+      <c r="Q141" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R141" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="S141" s="12"/>
       <c r="T141" s="12"/>
       <c r="U141" s="12"/>
@@ -9206,30 +9259,34 @@
     <row r="142">
       <c r="A142" s="13"/>
       <c r="B142" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C142" s="14"/>
       <c r="D142" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E142" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="H142" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
+      <c r="M142" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="O142" s="12"/>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -9257,30 +9314,34 @@
     <row r="143">
       <c r="A143" s="13"/>
       <c r="B143" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C143" s="14"/>
       <c r="D143" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F143" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="G143" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="H143" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
+      <c r="M143" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N143" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="O143" s="12"/>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -9308,7 +9369,7 @@
     <row r="144">
       <c r="A144" s="13"/>
       <c r="B144" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C144" s="14"/>
       <c r="D144" s="9" t="s">
@@ -9318,12 +9379,16 @@
         <v>17</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
       <c r="M144" s="12"/>
@@ -9355,22 +9420,26 @@
     <row r="145">
       <c r="A145" s="13"/>
       <c r="B145" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C145" s="14"/>
       <c r="D145" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
+      <c r="I145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
       <c r="M145" s="12"/>
@@ -9402,22 +9471,26 @@
     <row r="146">
       <c r="A146" s="13"/>
       <c r="B146" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C146" s="14"/>
       <c r="D146" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E146" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
+      <c r="I146" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
       <c r="M146" s="12"/>
@@ -9449,17 +9522,17 @@
     <row r="147">
       <c r="A147" s="13"/>
       <c r="B147" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E147" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -9467,7 +9540,7 @@
         <v>17</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
@@ -9500,17 +9573,17 @@
     <row r="148">
       <c r="A148" s="13"/>
       <c r="B148" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -9518,7 +9591,7 @@
         <v>17</v>
       </c>
       <c r="J148" s="11" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
@@ -9551,32 +9624,44 @@
     <row r="149">
       <c r="A149" s="13"/>
       <c r="B149" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C149" s="14"/>
       <c r="D149" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
+        <v>283</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H149" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="I149" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J149" s="11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
-      <c r="O149" s="12"/>
-      <c r="P149" s="12"/>
+      <c r="M149" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O149" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="P149" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="Q149" s="12"/>
       <c r="R149" s="12"/>
       <c r="S149" s="12"/>
@@ -9602,7 +9687,7 @@
     <row r="150">
       <c r="A150" s="13"/>
       <c r="B150" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="9" t="s">
@@ -9612,16 +9697,12 @@
         <v>17</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
-      <c r="I150" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J150" s="11" t="s">
-        <v>284</v>
-      </c>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
       <c r="K150" s="12"/>
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
@@ -9653,20 +9734,24 @@
     <row r="151">
       <c r="A151" s="13"/>
       <c r="B151" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C151" s="14"/>
       <c r="D151" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
+        <v>283</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H151" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
@@ -9700,20 +9785,24 @@
     <row r="152">
       <c r="A152" s="13"/>
       <c r="B152" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C152" s="14"/>
       <c r="D152" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
+        <v>286</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H152" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
       <c r="K152" s="12"/>
@@ -9747,26 +9836,22 @@
     <row r="153">
       <c r="A153" s="13"/>
       <c r="B153" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C153" s="14"/>
       <c r="D153" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J153" s="11" t="s">
-        <v>291</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
@@ -9798,26 +9883,22 @@
     <row r="154">
       <c r="A154" s="13"/>
       <c r="B154" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C154" s="14"/>
       <c r="D154" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
-      <c r="I154" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J154" s="11" t="s">
-        <v>291</v>
-      </c>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
       <c r="K154" s="12"/>
       <c r="L154" s="12"/>
       <c r="M154" s="12"/>
@@ -9849,26 +9930,22 @@
     <row r="155">
       <c r="A155" s="13"/>
       <c r="B155" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C155" s="14"/>
       <c r="D155" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
-      <c r="I155" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J155" s="11" t="s">
-        <v>291</v>
-      </c>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
       <c r="K155" s="12"/>
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
@@ -9900,22 +9977,26 @@
     <row r="156">
       <c r="A156" s="13"/>
       <c r="B156" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C156" s="14"/>
       <c r="D156" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
+      <c r="I156" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="K156" s="12"/>
       <c r="L156" s="12"/>
       <c r="M156" s="12"/>
@@ -9947,22 +10028,26 @@
     <row r="157">
       <c r="A157" s="13"/>
       <c r="B157" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C157" s="14"/>
       <c r="D157" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
+      <c r="I157" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="K157" s="12"/>
       <c r="L157" s="12"/>
       <c r="M157" s="12"/>
@@ -9994,22 +10079,26 @@
     <row r="158">
       <c r="A158" s="13"/>
       <c r="B158" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C158" s="14"/>
       <c r="D158" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E158" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
+      <c r="I158" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>298</v>
+      </c>
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
@@ -10041,22 +10130,26 @@
     <row r="159">
       <c r="A159" s="13"/>
       <c r="B159" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C159" s="14"/>
       <c r="D159" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
+      <c r="I159" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>301</v>
+      </c>
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
       <c r="M159" s="12"/>
@@ -10088,17 +10181,17 @@
     <row r="160">
       <c r="A160" s="13"/>
       <c r="B160" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C160" s="14"/>
       <c r="D160" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -10135,26 +10228,22 @@
     <row r="161">
       <c r="A161" s="13"/>
       <c r="B161" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C161" s="14"/>
       <c r="D161" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
-      <c r="I161" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J161" s="11" t="s">
-        <v>308</v>
-      </c>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
       <c r="M161" s="12"/>
@@ -10186,22 +10275,26 @@
     <row r="162">
       <c r="A162" s="13"/>
       <c r="B162" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C162" s="14"/>
       <c r="D162" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
+      <c r="I162" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>308</v>
+      </c>
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="12"/>
@@ -10233,22 +10326,26 @@
     <row r="163">
       <c r="A163" s="13"/>
       <c r="B163" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C163" s="14"/>
       <c r="D163" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
+      <c r="I163" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" s="11" t="s">
+        <v>308</v>
+      </c>
       <c r="K163" s="12"/>
       <c r="L163" s="12"/>
       <c r="M163" s="12"/>
@@ -10280,17 +10377,17 @@
     <row r="164">
       <c r="A164" s="13"/>
       <c r="B164" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C164" s="14"/>
       <c r="D164" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E164" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -10298,7 +10395,7 @@
         <v>17</v>
       </c>
       <c r="J164" s="11" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K164" s="12"/>
       <c r="L164" s="12"/>
@@ -10331,17 +10428,17 @@
     <row r="165">
       <c r="A165" s="13"/>
       <c r="B165" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C165" s="14"/>
       <c r="D165" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
@@ -10378,17 +10475,17 @@
     <row r="166">
       <c r="A166" s="13"/>
       <c r="B166" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C166" s="14"/>
       <c r="D166" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
@@ -10425,17 +10522,17 @@
     <row r="167">
       <c r="A167" s="13"/>
       <c r="B167" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C167" s="14"/>
       <c r="D167" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -10472,42 +10569,30 @@
     <row r="168">
       <c r="A168" s="13"/>
       <c r="B168" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C168" s="14"/>
       <c r="D168" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
-      <c r="I168" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J168" s="11" t="s">
-        <v>268</v>
-      </c>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
-      <c r="M168" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N168" s="11" t="s">
-        <v>324</v>
-      </c>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
       <c r="O168" s="12"/>
       <c r="P168" s="12"/>
-      <c r="Q168" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R168" s="11" t="s">
-        <v>325</v>
-      </c>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
       <c r="S168" s="12"/>
       <c r="T168" s="12"/>
       <c r="U168" s="12"/>
@@ -10531,26 +10616,22 @@
     <row r="169">
       <c r="A169" s="13"/>
       <c r="B169" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C169" s="14"/>
       <c r="D169" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
-      <c r="I169" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J169" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
@@ -10582,22 +10663,26 @@
     <row r="170">
       <c r="A170" s="13"/>
       <c r="B170" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C170" s="14"/>
       <c r="D170" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
+      <c r="I170" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>325</v>
+      </c>
       <c r="K170" s="12"/>
       <c r="L170" s="12"/>
       <c r="M170" s="12"/>
@@ -10629,17 +10714,17 @@
     <row r="171">
       <c r="A171" s="13"/>
       <c r="B171" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C171" s="14"/>
       <c r="D171" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
@@ -10676,34 +10761,26 @@
     <row r="172">
       <c r="A172" s="13"/>
       <c r="B172" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C172" s="14"/>
       <c r="D172" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
-      <c r="I172" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J172" s="11" t="s">
-        <v>248</v>
-      </c>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
-      <c r="M172" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N172" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
       <c r="O172" s="12"/>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -10731,22 +10808,26 @@
     <row r="173">
       <c r="A173" s="13"/>
       <c r="B173" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C173" s="14"/>
       <c r="D173" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
+      <c r="I173" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" s="11" t="s">
+        <v>332</v>
+      </c>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
       <c r="M173" s="12"/>
@@ -10778,26 +10859,22 @@
     <row r="174">
       <c r="A174" s="13"/>
       <c r="B174" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C174" s="14"/>
       <c r="D174" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
-      <c r="I174" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J174" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
       <c r="M174" s="12"/>
@@ -10829,17 +10906,17 @@
     <row r="175">
       <c r="A175" s="13"/>
       <c r="B175" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C175" s="14"/>
       <c r="D175" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E175" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
@@ -10847,7 +10924,7 @@
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
-      <c r="M175" s="11"/>
+      <c r="M175" s="12"/>
       <c r="N175" s="12"/>
       <c r="O175" s="12"/>
       <c r="P175" s="12"/>
@@ -10876,42 +10953,30 @@
     <row r="176">
       <c r="A176" s="13"/>
       <c r="B176" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
-      <c r="I176" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J176" s="11" t="s">
-        <v>342</v>
-      </c>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
-      <c r="M176" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N176" s="11" t="s">
-        <v>343</v>
-      </c>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
       <c r="O176" s="12"/>
       <c r="P176" s="12"/>
-      <c r="Q176" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R176" s="11" t="s">
-        <v>344</v>
-      </c>
+      <c r="Q176" s="12"/>
+      <c r="R176" s="12"/>
       <c r="S176" s="12"/>
       <c r="T176" s="12"/>
       <c r="U176" s="12"/>
@@ -10935,30 +11000,42 @@
     <row r="177">
       <c r="A177" s="13"/>
       <c r="B177" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C177" s="14"/>
       <c r="D177" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E177" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
-      <c r="I177" s="12"/>
-      <c r="J177" s="12"/>
+      <c r="I177" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" s="11" t="s">
+        <v>285</v>
+      </c>
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
-      <c r="M177" s="12"/>
-      <c r="N177" s="12"/>
+      <c r="M177" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N177" s="11" t="s">
+        <v>341</v>
+      </c>
       <c r="O177" s="12"/>
       <c r="P177" s="12"/>
-      <c r="Q177" s="12"/>
-      <c r="R177" s="12"/>
+      <c r="Q177" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R177" s="11" t="s">
+        <v>342</v>
+      </c>
       <c r="S177" s="12"/>
       <c r="T177" s="12"/>
       <c r="U177" s="12"/>
@@ -10982,22 +11059,26 @@
     <row r="178">
       <c r="A178" s="13"/>
       <c r="B178" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E178" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
+      <c r="I178" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
       <c r="M178" s="12"/>
@@ -11029,42 +11110,30 @@
     <row r="179">
       <c r="A179" s="13"/>
       <c r="B179" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C179" s="14"/>
       <c r="D179" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
-      <c r="I179" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J179" s="11" t="s">
-        <v>351</v>
-      </c>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
-      <c r="M179" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N179" s="11" t="s">
-        <v>343</v>
-      </c>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
       <c r="O179" s="12"/>
       <c r="P179" s="12"/>
-      <c r="Q179" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R179" s="11" t="s">
-        <v>344</v>
-      </c>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="12"/>
       <c r="S179" s="12"/>
       <c r="T179" s="12"/>
       <c r="U179" s="12"/>
@@ -11088,17 +11157,17 @@
     <row r="180">
       <c r="A180" s="13"/>
       <c r="B180" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C180" s="14"/>
       <c r="D180" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E180" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
@@ -11135,26 +11204,34 @@
     <row r="181">
       <c r="A181" s="13"/>
       <c r="B181" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C181" s="14"/>
       <c r="D181" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
-      <c r="J181" s="12"/>
+      <c r="I181" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
-      <c r="M181" s="12"/>
-      <c r="N181" s="12"/>
+      <c r="M181" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N181" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="O181" s="12"/>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -11182,34 +11259,26 @@
     <row r="182">
       <c r="A182" s="13"/>
       <c r="B182" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C182" s="14"/>
       <c r="D182" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
-      <c r="I182" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J182" s="11" t="s">
-        <v>357</v>
-      </c>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
-      <c r="M182" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N182" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
       <c r="O182" s="12"/>
       <c r="P182" s="12"/>
       <c r="Q182" s="12"/>
@@ -11237,25 +11306,25 @@
     <row r="183">
       <c r="A183" s="13"/>
       <c r="B183" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C183" s="14"/>
       <c r="D183" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
       <c r="I183" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J183" s="11" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
@@ -11288,17 +11357,17 @@
     <row r="184">
       <c r="A184" s="13"/>
       <c r="B184" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E184" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -11306,7 +11375,7 @@
       <c r="J184" s="12"/>
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
-      <c r="M184" s="12"/>
+      <c r="M184" s="11"/>
       <c r="N184" s="12"/>
       <c r="O184" s="12"/>
       <c r="P184" s="12"/>
@@ -11335,17 +11404,17 @@
     <row r="185">
       <c r="A185" s="13"/>
       <c r="B185" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C185" s="14"/>
       <c r="D185" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -11353,7 +11422,7 @@
         <v>17</v>
       </c>
       <c r="J185" s="11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
@@ -11361,12 +11430,16 @@
         <v>17</v>
       </c>
       <c r="N185" s="11" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="O185" s="12"/>
       <c r="P185" s="12"/>
-      <c r="Q185" s="12"/>
-      <c r="R185" s="12"/>
+      <c r="Q185" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R185" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="S185" s="12"/>
       <c r="T185" s="12"/>
       <c r="U185" s="12"/>
@@ -11390,34 +11463,26 @@
     <row r="186">
       <c r="A186" s="13"/>
       <c r="B186" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C186" s="14"/>
       <c r="D186" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E186" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
-      <c r="I186" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J186" s="11" t="s">
-        <v>366</v>
-      </c>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
-      <c r="M186" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N186" s="11" t="s">
-        <v>367</v>
-      </c>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
       <c r="O186" s="12"/>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -11445,11 +11510,11 @@
     <row r="187">
       <c r="A187" s="13"/>
       <c r="B187" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C187" s="14"/>
       <c r="D187" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E187" s="11" t="s">
         <v>17</v>
@@ -11459,20 +11524,12 @@
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
-      <c r="I187" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J187" s="11" t="s">
-        <v>369</v>
-      </c>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
       <c r="K187" s="12"/>
       <c r="L187" s="12"/>
-      <c r="M187" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N187" s="11" t="s">
-        <v>367</v>
-      </c>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
       <c r="O187" s="12"/>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -11500,17 +11557,17 @@
     <row r="188">
       <c r="A188" s="13"/>
       <c r="B188" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C188" s="14"/>
       <c r="D188" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E188" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -11518,7 +11575,7 @@
         <v>17</v>
       </c>
       <c r="J188" s="11" t="s">
-        <v>268</v>
+        <v>368</v>
       </c>
       <c r="K188" s="12"/>
       <c r="L188" s="12"/>
@@ -11526,7 +11583,7 @@
         <v>17</v>
       </c>
       <c r="N188" s="11" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="O188" s="12"/>
       <c r="P188" s="12"/>
@@ -11534,9 +11591,9 @@
         <v>17</v>
       </c>
       <c r="R188" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="S188" s="11"/>
+        <v>361</v>
+      </c>
+      <c r="S188" s="12"/>
       <c r="T188" s="12"/>
       <c r="U188" s="12"/>
       <c r="V188" s="12"/>
@@ -11559,34 +11616,26 @@
     <row r="189">
       <c r="A189" s="13"/>
       <c r="B189" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C189" s="14"/>
       <c r="D189" s="9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E189" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
-      <c r="I189" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J189" s="11" t="s">
-        <v>375</v>
-      </c>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
       <c r="K189" s="12"/>
       <c r="L189" s="12"/>
-      <c r="M189" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N189" s="11" t="s">
-        <v>226</v>
-      </c>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
       <c r="O189" s="12"/>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -11614,34 +11663,26 @@
     <row r="190">
       <c r="A190" s="13"/>
       <c r="B190" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C190" s="14"/>
       <c r="D190" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E190" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
-      <c r="I190" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J190" s="11" t="s">
-        <v>378</v>
-      </c>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
-      <c r="M190" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N190" s="11" t="s">
-        <v>379</v>
-      </c>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
       <c r="O190" s="12"/>
       <c r="P190" s="12"/>
       <c r="Q190" s="12"/>
@@ -11669,17 +11710,17 @@
     <row r="191">
       <c r="A191" s="13"/>
       <c r="B191" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="9" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E191" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
@@ -11687,7 +11728,7 @@
         <v>17</v>
       </c>
       <c r="J191" s="11" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="K191" s="12"/>
       <c r="L191" s="12"/>
@@ -11695,7 +11736,7 @@
         <v>17</v>
       </c>
       <c r="N191" s="11" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="O191" s="12"/>
       <c r="P191" s="12"/>
@@ -11724,42 +11765,34 @@
     <row r="192">
       <c r="A192" s="13"/>
       <c r="B192" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E192" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
       <c r="I192" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J192" s="11" t="s">
-        <v>384</v>
+        <v>235</v>
       </c>
       <c r="K192" s="12"/>
       <c r="L192" s="12"/>
-      <c r="M192" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N192" s="11" t="s">
-        <v>385</v>
-      </c>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
       <c r="O192" s="12"/>
       <c r="P192" s="12"/>
-      <c r="Q192" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R192" s="11" t="s">
-        <v>386</v>
-      </c>
+      <c r="Q192" s="12"/>
+      <c r="R192" s="12"/>
       <c r="S192" s="12"/>
       <c r="T192" s="12"/>
       <c r="U192" s="12"/>
@@ -11783,26 +11816,22 @@
     <row r="193">
       <c r="A193" s="13"/>
       <c r="B193" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C193" s="14"/>
       <c r="D193" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E193" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
-      <c r="I193" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J193" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="12"/>
@@ -11834,17 +11863,17 @@
     <row r="194">
       <c r="A194" s="13"/>
       <c r="B194" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C194" s="14"/>
       <c r="D194" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E194" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -11852,7 +11881,7 @@
         <v>17</v>
       </c>
       <c r="J194" s="11" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="K194" s="12"/>
       <c r="L194" s="12"/>
@@ -11860,7 +11889,7 @@
         <v>17</v>
       </c>
       <c r="N194" s="11" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="O194" s="12"/>
       <c r="P194" s="12"/>
@@ -11889,26 +11918,34 @@
     <row r="195">
       <c r="A195" s="13"/>
       <c r="B195" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C195" s="14"/>
       <c r="D195" s="9" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E195" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
-      <c r="I195" s="12"/>
-      <c r="J195" s="12"/>
+      <c r="I195" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195" s="11" t="s">
+        <v>383</v>
+      </c>
       <c r="K195" s="12"/>
       <c r="L195" s="12"/>
-      <c r="M195" s="12"/>
-      <c r="N195" s="12"/>
+      <c r="M195" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N195" s="11" t="s">
+        <v>384</v>
+      </c>
       <c r="O195" s="12"/>
       <c r="P195" s="12"/>
       <c r="Q195" s="12"/>
@@ -11936,17 +11973,17 @@
     <row r="196">
       <c r="A196" s="13"/>
       <c r="B196" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C196" s="14"/>
       <c r="D196" s="9" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E196" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
@@ -11954,7 +11991,7 @@
         <v>17</v>
       </c>
       <c r="J196" s="11" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K196" s="12"/>
       <c r="L196" s="12"/>
@@ -11962,7 +11999,7 @@
         <v>17</v>
       </c>
       <c r="N196" s="11" t="s">
-        <v>249</v>
+        <v>384</v>
       </c>
       <c r="O196" s="12"/>
       <c r="P196" s="12"/>
@@ -11991,31 +12028,43 @@
     <row r="197">
       <c r="A197" s="13"/>
       <c r="B197" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C197" s="14"/>
       <c r="D197" s="9" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E197" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
-      <c r="J197" s="12"/>
+      <c r="I197" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" s="11" t="s">
+        <v>285</v>
+      </c>
       <c r="K197" s="12"/>
       <c r="L197" s="12"/>
-      <c r="M197" s="12"/>
-      <c r="N197" s="12"/>
+      <c r="M197" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N197" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="O197" s="12"/>
       <c r="P197" s="12"/>
-      <c r="Q197" s="12"/>
-      <c r="R197" s="12"/>
-      <c r="S197" s="12"/>
+      <c r="Q197" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R197" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="S197" s="11"/>
       <c r="T197" s="12"/>
       <c r="U197" s="12"/>
       <c r="V197" s="12"/>
@@ -12038,26 +12087,34 @@
     <row r="198">
       <c r="A198" s="13"/>
       <c r="B198" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C198" s="14"/>
       <c r="D198" s="9" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E198" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="12"/>
+      <c r="I198" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" s="11" t="s">
+        <v>392</v>
+      </c>
       <c r="K198" s="12"/>
       <c r="L198" s="12"/>
-      <c r="M198" s="12"/>
-      <c r="N198" s="12"/>
+      <c r="M198" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N198" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="O198" s="12"/>
       <c r="P198" s="12"/>
       <c r="Q198" s="12"/>
@@ -12085,17 +12142,17 @@
     <row r="199">
       <c r="A199" s="13"/>
       <c r="B199" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C199" s="14"/>
       <c r="D199" s="9" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
@@ -12103,12 +12160,16 @@
         <v>17</v>
       </c>
       <c r="J199" s="11" t="s">
-        <v>226</v>
+        <v>395</v>
       </c>
       <c r="K199" s="12"/>
       <c r="L199" s="12"/>
-      <c r="M199" s="12"/>
-      <c r="N199" s="12"/>
+      <c r="M199" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N199" s="11" t="s">
+        <v>396</v>
+      </c>
       <c r="O199" s="12"/>
       <c r="P199" s="12"/>
       <c r="Q199" s="12"/>
@@ -12136,17 +12197,17 @@
     <row r="200">
       <c r="A200" s="13"/>
       <c r="B200" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C200" s="14"/>
       <c r="D200" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E200" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
@@ -12154,12 +12215,16 @@
         <v>17</v>
       </c>
       <c r="J200" s="11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K200" s="12"/>
       <c r="L200" s="12"/>
-      <c r="M200" s="12"/>
-      <c r="N200" s="12"/>
+      <c r="M200" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N200" s="11" t="s">
+        <v>325</v>
+      </c>
       <c r="O200" s="12"/>
       <c r="P200" s="12"/>
       <c r="Q200" s="12"/>
@@ -12187,34 +12252,42 @@
     <row r="201">
       <c r="A201" s="13"/>
       <c r="B201" s="9" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C201" s="14"/>
       <c r="D201" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E201" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
       <c r="I201" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J201" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K201" s="12"/>
       <c r="L201" s="12"/>
-      <c r="M201" s="12"/>
-      <c r="N201" s="12"/>
+      <c r="M201" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N201" s="11" t="s">
+        <v>402</v>
+      </c>
       <c r="O201" s="12"/>
       <c r="P201" s="12"/>
-      <c r="Q201" s="12"/>
-      <c r="R201" s="12"/>
+      <c r="Q201" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R201" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="S201" s="12"/>
       <c r="T201" s="12"/>
       <c r="U201" s="12"/>
@@ -12238,34 +12311,30 @@
     <row r="202">
       <c r="A202" s="13"/>
       <c r="B202" s="9" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C202" s="14"/>
       <c r="D202" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>408</v>
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J202" s="11" t="s">
-        <v>409</v>
+        <v>266</v>
       </c>
       <c r="K202" s="12"/>
       <c r="L202" s="12"/>
-      <c r="M202" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N202" s="11" t="s">
-        <v>406</v>
-      </c>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
       <c r="O202" s="12"/>
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
@@ -12293,25 +12362,25 @@
     <row r="203">
       <c r="A203" s="13"/>
       <c r="B203" s="9" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C203" s="14"/>
       <c r="D203" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
       <c r="I203" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J203" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K203" s="12"/>
       <c r="L203" s="12"/>
@@ -12319,16 +12388,12 @@
         <v>17</v>
       </c>
       <c r="N203" s="11" t="s">
-        <v>410</v>
+        <v>266</v>
       </c>
       <c r="O203" s="12"/>
       <c r="P203" s="12"/>
-      <c r="Q203" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R203" s="11" t="s">
-        <v>406</v>
-      </c>
+      <c r="Q203" s="12"/>
+      <c r="R203" s="12"/>
       <c r="S203" s="12"/>
       <c r="T203" s="12"/>
       <c r="U203" s="12"/>
@@ -12352,26 +12417,22 @@
     <row r="204">
       <c r="A204" s="13"/>
       <c r="B204" s="9" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C204" s="14"/>
       <c r="D204" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
-      <c r="I204" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J204" s="11" t="s">
-        <v>413</v>
-      </c>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
       <c r="K204" s="12"/>
       <c r="L204" s="12"/>
       <c r="M204" s="12"/>
@@ -12403,7 +12464,7 @@
     <row r="205">
       <c r="A205" s="13"/>
       <c r="B205" s="9" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="9" t="s">
@@ -12413,7 +12474,7 @@
         <v>17</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
@@ -12421,15 +12482,15 @@
         <v>17</v>
       </c>
       <c r="J205" s="11" t="s">
-        <v>25</v>
+        <v>413</v>
       </c>
       <c r="K205" s="12"/>
       <c r="L205" s="12"/>
       <c r="M205" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N205" s="11" t="s">
-        <v>415</v>
+        <v>266</v>
       </c>
       <c r="O205" s="12"/>
       <c r="P205" s="12"/>
@@ -12458,26 +12519,22 @@
     <row r="206">
       <c r="A206" s="13"/>
       <c r="B206" s="9" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C206" s="14"/>
       <c r="D206" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E206" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
-      <c r="I206" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J206" s="11" t="s">
-        <v>418</v>
-      </c>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
       <c r="K206" s="12"/>
       <c r="L206" s="12"/>
       <c r="M206" s="12"/>
@@ -12509,34 +12566,26 @@
     <row r="207">
       <c r="A207" s="13"/>
       <c r="B207" s="9" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C207" s="14"/>
       <c r="D207" s="9" t="s">
         <v>416</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
-      <c r="I207" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J207" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="I207" s="12"/>
+      <c r="J207" s="12"/>
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
-      <c r="M207" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N207" s="11" t="s">
-        <v>417</v>
-      </c>
+      <c r="M207" s="12"/>
+      <c r="N207" s="12"/>
       <c r="O207" s="12"/>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -12564,25 +12613,25 @@
     <row r="208">
       <c r="A208" s="13"/>
       <c r="B208" s="9" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C208" s="14"/>
       <c r="D208" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" s="11" t="s">
         <v>419</v>
-      </c>
-      <c r="E208" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F208" s="11" t="s">
-        <v>420</v>
       </c>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
       <c r="I208" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J208" s="11" t="s">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
@@ -12615,14 +12664,14 @@
     <row r="209">
       <c r="A209" s="13"/>
       <c r="B209" s="9" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C209" s="14"/>
       <c r="D209" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>421</v>
@@ -12630,19 +12679,15 @@
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
       <c r="I209" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J209" s="11" t="s">
-        <v>409</v>
+        <v>235</v>
       </c>
       <c r="K209" s="12"/>
       <c r="L209" s="12"/>
-      <c r="M209" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N209" s="11" t="s">
-        <v>420</v>
-      </c>
+      <c r="M209" s="12"/>
+      <c r="N209" s="12"/>
       <c r="O209" s="12"/>
       <c r="P209" s="12"/>
       <c r="Q209" s="12"/>
@@ -12670,7 +12715,7 @@
     <row r="210">
       <c r="A210" s="13"/>
       <c r="B210" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C210" s="14"/>
       <c r="D210" s="9" t="s">
@@ -12685,19 +12730,15 @@
       <c r="G210" s="12"/>
       <c r="H210" s="12"/>
       <c r="I210" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J210" s="11" t="s">
         <v>424</v>
       </c>
       <c r="K210" s="12"/>
       <c r="L210" s="12"/>
-      <c r="M210" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N210" s="11" t="s">
-        <v>425</v>
-      </c>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
       <c r="O210" s="12"/>
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
@@ -12725,25 +12766,25 @@
     <row r="211">
       <c r="A211" s="13"/>
       <c r="B211" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C211" s="14"/>
       <c r="D211" s="9" t="s">
         <v>422</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G211" s="12"/>
       <c r="H211" s="12"/>
       <c r="I211" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J211" s="11" t="s">
-        <v>25</v>
+        <v>426</v>
       </c>
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
@@ -12751,28 +12792,16 @@
         <v>17</v>
       </c>
       <c r="N211" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O211" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P211" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q211" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R211" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="S211" s="11"/>
+      <c r="O211" s="12"/>
+      <c r="P211" s="12"/>
+      <c r="Q211" s="12"/>
+      <c r="R211" s="12"/>
+      <c r="S211" s="12"/>
       <c r="T211" s="12"/>
-      <c r="U211" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="V211" s="11" t="s">
-        <v>424</v>
-      </c>
+      <c r="U211" s="12"/>
+      <c r="V211" s="12"/>
       <c r="W211" s="12"/>
       <c r="X211" s="12"/>
       <c r="Y211" s="12"/>
@@ -12792,38 +12821,42 @@
     <row r="212">
       <c r="A212" s="13"/>
       <c r="B212" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C212" s="14"/>
       <c r="D212" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E212" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G212" s="12"/>
       <c r="H212" s="12"/>
       <c r="I212" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J212" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K212" s="12"/>
       <c r="L212" s="12"/>
       <c r="M212" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N212" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O212" s="12"/>
       <c r="P212" s="12"/>
-      <c r="Q212" s="12"/>
-      <c r="R212" s="12"/>
+      <c r="Q212" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R212" s="11" t="s">
+        <v>423</v>
+      </c>
       <c r="S212" s="12"/>
       <c r="T212" s="12"/>
       <c r="U212" s="12"/>
@@ -12847,42 +12880,34 @@
     <row r="213">
       <c r="A213" s="13"/>
       <c r="B213" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C213" s="14"/>
       <c r="D213" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G213" s="12"/>
       <c r="H213" s="12"/>
       <c r="I213" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J213" s="11" t="s">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="K213" s="12"/>
       <c r="L213" s="12"/>
-      <c r="M213" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N213" s="11" t="s">
-        <v>428</v>
-      </c>
+      <c r="M213" s="12"/>
+      <c r="N213" s="12"/>
       <c r="O213" s="12"/>
       <c r="P213" s="12"/>
-      <c r="Q213" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R213" s="11" t="s">
-        <v>429</v>
-      </c>
+      <c r="Q213" s="12"/>
+      <c r="R213" s="12"/>
       <c r="S213" s="12"/>
       <c r="T213" s="12"/>
       <c r="U213" s="12"/>
@@ -12906,30 +12931,34 @@
     <row r="214">
       <c r="A214" s="13"/>
       <c r="B214" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C214" s="14"/>
       <c r="D214" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E214" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G214" s="12"/>
       <c r="H214" s="12"/>
       <c r="I214" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J214" s="11" t="s">
-        <v>431</v>
+        <v>25</v>
       </c>
       <c r="K214" s="12"/>
       <c r="L214" s="12"/>
-      <c r="M214" s="12"/>
-      <c r="N214" s="12"/>
+      <c r="M214" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N214" s="11" t="s">
+        <v>432</v>
+      </c>
       <c r="O214" s="12"/>
       <c r="P214" s="12"/>
       <c r="Q214" s="12"/>
@@ -12957,22 +12986,26 @@
     <row r="215">
       <c r="A215" s="13"/>
       <c r="B215" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C215" s="14"/>
       <c r="D215" s="9" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G215" s="12"/>
       <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
-      <c r="J215" s="12"/>
+      <c r="I215" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J215" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="K215" s="12"/>
       <c r="L215" s="12"/>
       <c r="M215" s="12"/>
@@ -13004,30 +13037,34 @@
     <row r="216">
       <c r="A216" s="13"/>
       <c r="B216" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C216" s="14"/>
       <c r="D216" s="9" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G216" s="12"/>
       <c r="H216" s="12"/>
       <c r="I216" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J216" s="11" t="s">
-        <v>434</v>
+        <v>25</v>
       </c>
       <c r="K216" s="12"/>
       <c r="L216" s="12"/>
-      <c r="M216" s="12"/>
-      <c r="N216" s="12"/>
+      <c r="M216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N216" s="11" t="s">
+        <v>434</v>
+      </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
       <c r="Q216" s="12"/>
@@ -13055,17 +13092,17 @@
     <row r="217">
       <c r="A217" s="13"/>
       <c r="B217" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C217" s="14"/>
       <c r="D217" s="9" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F217" s="11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G217" s="12"/>
       <c r="H217" s="12"/>
@@ -13073,16 +13110,12 @@
         <v>22</v>
       </c>
       <c r="J217" s="11" t="s">
-        <v>155</v>
+        <v>438</v>
       </c>
       <c r="K217" s="12"/>
       <c r="L217" s="12"/>
-      <c r="M217" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N217" s="11" t="s">
-        <v>433</v>
-      </c>
+      <c r="M217" s="12"/>
+      <c r="N217" s="12"/>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
       <c r="Q217" s="12"/>
@@ -13110,26 +13143,34 @@
     <row r="218">
       <c r="A218" s="13"/>
       <c r="B218" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C218" s="14"/>
       <c r="D218" s="9" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F218" s="11" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G218" s="12"/>
       <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
-      <c r="J218" s="12"/>
+      <c r="I218" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J218" s="11" t="s">
+        <v>426</v>
+      </c>
       <c r="K218" s="12"/>
       <c r="L218" s="12"/>
-      <c r="M218" s="12"/>
-      <c r="N218" s="12"/>
+      <c r="M218" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N218" s="11" t="s">
+        <v>437</v>
+      </c>
       <c r="O218" s="12"/>
       <c r="P218" s="12"/>
       <c r="Q218" s="12"/>
@@ -13157,17 +13198,17 @@
     <row r="219">
       <c r="A219" s="13"/>
       <c r="B219" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C219" s="14"/>
       <c r="D219" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E219" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G219" s="12"/>
       <c r="H219" s="12"/>
@@ -13175,12 +13216,16 @@
         <v>17</v>
       </c>
       <c r="J219" s="11" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K219" s="12"/>
       <c r="L219" s="12"/>
-      <c r="M219" s="12"/>
-      <c r="N219" s="12"/>
+      <c r="M219" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N219" s="11" t="s">
+        <v>442</v>
+      </c>
       <c r="O219" s="12"/>
       <c r="P219" s="12"/>
       <c r="Q219" s="12"/>
@@ -13208,7 +13253,7 @@
     <row r="220">
       <c r="A220" s="13"/>
       <c r="B220" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C220" s="14"/>
       <c r="D220" s="9" t="s">
@@ -13218,7 +13263,7 @@
         <v>17</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G220" s="12"/>
       <c r="H220" s="12"/>
@@ -13226,20 +13271,36 @@
         <v>17</v>
       </c>
       <c r="J220" s="11" t="s">
-        <v>440</v>
+        <v>25</v>
       </c>
       <c r="K220" s="12"/>
       <c r="L220" s="12"/>
-      <c r="M220" s="12"/>
-      <c r="N220" s="12"/>
-      <c r="O220" s="12"/>
-      <c r="P220" s="12"/>
-      <c r="Q220" s="12"/>
-      <c r="R220" s="12"/>
-      <c r="S220" s="12"/>
+      <c r="M220" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N220" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O220" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P220" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q220" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R220" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="S220" s="11"/>
       <c r="T220" s="12"/>
-      <c r="U220" s="12"/>
-      <c r="V220" s="12"/>
+      <c r="U220" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V220" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="W220" s="12"/>
       <c r="X220" s="12"/>
       <c r="Y220" s="12"/>
@@ -13259,30 +13320,34 @@
     <row r="221">
       <c r="A221" s="13"/>
       <c r="B221" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C221" s="14"/>
       <c r="D221" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E221" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G221" s="12"/>
       <c r="H221" s="12"/>
       <c r="I221" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J221" s="11" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K221" s="12"/>
       <c r="L221" s="12"/>
-      <c r="M221" s="12"/>
-      <c r="N221" s="12"/>
+      <c r="M221" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N221" s="11" t="s">
+        <v>443</v>
+      </c>
       <c r="O221" s="12"/>
       <c r="P221" s="12"/>
       <c r="Q221" s="12"/>
@@ -13310,14 +13375,14 @@
     <row r="222">
       <c r="A222" s="13"/>
       <c r="B222" s="9" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C222" s="14"/>
       <c r="D222" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F222" s="11" t="s">
         <v>443</v>
@@ -13328,27 +13393,23 @@
         <v>17</v>
       </c>
       <c r="J222" s="11" t="s">
-        <v>409</v>
+        <v>25</v>
       </c>
       <c r="K222" s="12"/>
       <c r="L222" s="12"/>
       <c r="M222" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N222" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O222" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P222" s="11" t="s">
-        <v>28</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="O222" s="12"/>
+      <c r="P222" s="12"/>
       <c r="Q222" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R222" s="11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="S222" s="12"/>
       <c r="T222" s="12"/>
@@ -13370,6 +13431,524 @@
       <c r="AJ222" s="12"/>
       <c r="AK222" s="12"/>
     </row>
+    <row r="223">
+      <c r="A223" s="13"/>
+      <c r="B223" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C223" s="14"/>
+      <c r="D223" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F223" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J223" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K223" s="12"/>
+      <c r="L223" s="12"/>
+      <c r="M223" s="12"/>
+      <c r="N223" s="12"/>
+      <c r="O223" s="12"/>
+      <c r="P223" s="12"/>
+      <c r="Q223" s="12"/>
+      <c r="R223" s="12"/>
+      <c r="S223" s="12"/>
+      <c r="T223" s="12"/>
+      <c r="U223" s="12"/>
+      <c r="V223" s="12"/>
+      <c r="W223" s="12"/>
+      <c r="X223" s="12"/>
+      <c r="Y223" s="12"/>
+      <c r="Z223" s="12"/>
+      <c r="AA223" s="12"/>
+      <c r="AB223" s="12"/>
+      <c r="AC223" s="12"/>
+      <c r="AD223" s="12"/>
+      <c r="AE223" s="12"/>
+      <c r="AF223" s="12"/>
+      <c r="AG223" s="12"/>
+      <c r="AH223" s="12"/>
+      <c r="AI223" s="12"/>
+      <c r="AJ223" s="12"/>
+      <c r="AK223" s="12"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="13"/>
+      <c r="B224" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C224" s="14"/>
+      <c r="D224" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+      <c r="J224" s="12"/>
+      <c r="K224" s="12"/>
+      <c r="L224" s="12"/>
+      <c r="M224" s="12"/>
+      <c r="N224" s="12"/>
+      <c r="O224" s="12"/>
+      <c r="P224" s="12"/>
+      <c r="Q224" s="12"/>
+      <c r="R224" s="12"/>
+      <c r="S224" s="12"/>
+      <c r="T224" s="12"/>
+      <c r="U224" s="12"/>
+      <c r="V224" s="12"/>
+      <c r="W224" s="12"/>
+      <c r="X224" s="12"/>
+      <c r="Y224" s="12"/>
+      <c r="Z224" s="12"/>
+      <c r="AA224" s="12"/>
+      <c r="AB224" s="12"/>
+      <c r="AC224" s="12"/>
+      <c r="AD224" s="12"/>
+      <c r="AE224" s="12"/>
+      <c r="AF224" s="12"/>
+      <c r="AG224" s="12"/>
+      <c r="AH224" s="12"/>
+      <c r="AI224" s="12"/>
+      <c r="AJ224" s="12"/>
+      <c r="AK224" s="12"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="13"/>
+      <c r="B225" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C225" s="14"/>
+      <c r="D225" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J225" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="K225" s="12"/>
+      <c r="L225" s="12"/>
+      <c r="M225" s="12"/>
+      <c r="N225" s="12"/>
+      <c r="O225" s="12"/>
+      <c r="P225" s="12"/>
+      <c r="Q225" s="12"/>
+      <c r="R225" s="12"/>
+      <c r="S225" s="12"/>
+      <c r="T225" s="12"/>
+      <c r="U225" s="12"/>
+      <c r="V225" s="12"/>
+      <c r="W225" s="12"/>
+      <c r="X225" s="12"/>
+      <c r="Y225" s="12"/>
+      <c r="Z225" s="12"/>
+      <c r="AA225" s="12"/>
+      <c r="AB225" s="12"/>
+      <c r="AC225" s="12"/>
+      <c r="AD225" s="12"/>
+      <c r="AE225" s="12"/>
+      <c r="AF225" s="12"/>
+      <c r="AG225" s="12"/>
+      <c r="AH225" s="12"/>
+      <c r="AI225" s="12"/>
+      <c r="AJ225" s="12"/>
+      <c r="AK225" s="12"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="13"/>
+      <c r="B226" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C226" s="14"/>
+      <c r="D226" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J226" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K226" s="12"/>
+      <c r="L226" s="12"/>
+      <c r="M226" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N226" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="O226" s="12"/>
+      <c r="P226" s="12"/>
+      <c r="Q226" s="12"/>
+      <c r="R226" s="12"/>
+      <c r="S226" s="12"/>
+      <c r="T226" s="12"/>
+      <c r="U226" s="12"/>
+      <c r="V226" s="12"/>
+      <c r="W226" s="12"/>
+      <c r="X226" s="12"/>
+      <c r="Y226" s="12"/>
+      <c r="Z226" s="12"/>
+      <c r="AA226" s="12"/>
+      <c r="AB226" s="12"/>
+      <c r="AC226" s="12"/>
+      <c r="AD226" s="12"/>
+      <c r="AE226" s="12"/>
+      <c r="AF226" s="12"/>
+      <c r="AG226" s="12"/>
+      <c r="AH226" s="12"/>
+      <c r="AI226" s="12"/>
+      <c r="AJ226" s="12"/>
+      <c r="AK226" s="12"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="13"/>
+      <c r="B227" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C227" s="14"/>
+      <c r="D227" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F227" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="12"/>
+      <c r="M227" s="12"/>
+      <c r="N227" s="12"/>
+      <c r="O227" s="12"/>
+      <c r="P227" s="12"/>
+      <c r="Q227" s="12"/>
+      <c r="R227" s="12"/>
+      <c r="S227" s="12"/>
+      <c r="T227" s="12"/>
+      <c r="U227" s="12"/>
+      <c r="V227" s="12"/>
+      <c r="W227" s="12"/>
+      <c r="X227" s="12"/>
+      <c r="Y227" s="12"/>
+      <c r="Z227" s="12"/>
+      <c r="AA227" s="12"/>
+      <c r="AB227" s="12"/>
+      <c r="AC227" s="12"/>
+      <c r="AD227" s="12"/>
+      <c r="AE227" s="12"/>
+      <c r="AF227" s="12"/>
+      <c r="AG227" s="12"/>
+      <c r="AH227" s="12"/>
+      <c r="AI227" s="12"/>
+      <c r="AJ227" s="12"/>
+      <c r="AK227" s="12"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="13"/>
+      <c r="B228" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C228" s="14"/>
+      <c r="D228" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J228" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="K228" s="12"/>
+      <c r="L228" s="12"/>
+      <c r="M228" s="12"/>
+      <c r="N228" s="12"/>
+      <c r="O228" s="12"/>
+      <c r="P228" s="12"/>
+      <c r="Q228" s="12"/>
+      <c r="R228" s="12"/>
+      <c r="S228" s="12"/>
+      <c r="T228" s="12"/>
+      <c r="U228" s="12"/>
+      <c r="V228" s="12"/>
+      <c r="W228" s="12"/>
+      <c r="X228" s="12"/>
+      <c r="Y228" s="12"/>
+      <c r="Z228" s="12"/>
+      <c r="AA228" s="12"/>
+      <c r="AB228" s="12"/>
+      <c r="AC228" s="12"/>
+      <c r="AD228" s="12"/>
+      <c r="AE228" s="12"/>
+      <c r="AF228" s="12"/>
+      <c r="AG228" s="12"/>
+      <c r="AH228" s="12"/>
+      <c r="AI228" s="12"/>
+      <c r="AJ228" s="12"/>
+      <c r="AK228" s="12"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="13"/>
+      <c r="B229" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C229" s="14"/>
+      <c r="D229" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J229" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="K229" s="12"/>
+      <c r="L229" s="12"/>
+      <c r="M229" s="12"/>
+      <c r="N229" s="12"/>
+      <c r="O229" s="12"/>
+      <c r="P229" s="12"/>
+      <c r="Q229" s="12"/>
+      <c r="R229" s="12"/>
+      <c r="S229" s="12"/>
+      <c r="T229" s="12"/>
+      <c r="U229" s="12"/>
+      <c r="V229" s="12"/>
+      <c r="W229" s="12"/>
+      <c r="X229" s="12"/>
+      <c r="Y229" s="12"/>
+      <c r="Z229" s="12"/>
+      <c r="AA229" s="12"/>
+      <c r="AB229" s="12"/>
+      <c r="AC229" s="12"/>
+      <c r="AD229" s="12"/>
+      <c r="AE229" s="12"/>
+      <c r="AF229" s="12"/>
+      <c r="AG229" s="12"/>
+      <c r="AH229" s="12"/>
+      <c r="AI229" s="12"/>
+      <c r="AJ229" s="12"/>
+      <c r="AK229" s="12"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="13"/>
+      <c r="B230" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C230" s="14"/>
+      <c r="D230" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J230" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="K230" s="12"/>
+      <c r="L230" s="12"/>
+      <c r="M230" s="12"/>
+      <c r="N230" s="12"/>
+      <c r="O230" s="12"/>
+      <c r="P230" s="12"/>
+      <c r="Q230" s="12"/>
+      <c r="R230" s="12"/>
+      <c r="S230" s="12"/>
+      <c r="T230" s="12"/>
+      <c r="U230" s="12"/>
+      <c r="V230" s="12"/>
+      <c r="W230" s="12"/>
+      <c r="X230" s="12"/>
+      <c r="Y230" s="12"/>
+      <c r="Z230" s="12"/>
+      <c r="AA230" s="12"/>
+      <c r="AB230" s="12"/>
+      <c r="AC230" s="12"/>
+      <c r="AD230" s="12"/>
+      <c r="AE230" s="12"/>
+      <c r="AF230" s="12"/>
+      <c r="AG230" s="12"/>
+      <c r="AH230" s="12"/>
+      <c r="AI230" s="12"/>
+      <c r="AJ230" s="12"/>
+      <c r="AK230" s="12"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="13"/>
+      <c r="B231" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C231" s="14"/>
+      <c r="D231" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J231" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="K231" s="12"/>
+      <c r="L231" s="12"/>
+      <c r="M231" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N231" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O231" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P231" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q231" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R231" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="S231" s="12"/>
+      <c r="T231" s="12"/>
+      <c r="U231" s="12"/>
+      <c r="V231" s="12"/>
+      <c r="W231" s="12"/>
+      <c r="X231" s="12"/>
+      <c r="Y231" s="12"/>
+      <c r="Z231" s="12"/>
+      <c r="AA231" s="12"/>
+      <c r="AB231" s="12"/>
+      <c r="AC231" s="12"/>
+      <c r="AD231" s="12"/>
+      <c r="AE231" s="12"/>
+      <c r="AF231" s="12"/>
+      <c r="AG231" s="12"/>
+      <c r="AH231" s="12"/>
+      <c r="AI231" s="12"/>
+      <c r="AJ231" s="12"/>
+      <c r="AK231" s="12"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="13"/>
+      <c r="B232" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C232" s="14"/>
+      <c r="D232" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F232" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J232" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="K232" s="12"/>
+      <c r="L232" s="12"/>
+      <c r="M232" s="11"/>
+      <c r="N232" s="11"/>
+      <c r="O232" s="11"/>
+      <c r="P232" s="11"/>
+      <c r="Q232" s="11"/>
+      <c r="R232" s="11"/>
+      <c r="S232" s="12"/>
+      <c r="T232" s="12"/>
+      <c r="U232" s="12"/>
+      <c r="V232" s="12"/>
+      <c r="W232" s="12"/>
+      <c r="X232" s="12"/>
+      <c r="Y232" s="12"/>
+      <c r="Z232" s="12"/>
+      <c r="AA232" s="12"/>
+      <c r="AB232" s="12"/>
+      <c r="AC232" s="12"/>
+      <c r="AD232" s="12"/>
+      <c r="AE232" s="12"/>
+      <c r="AF232" s="12"/>
+      <c r="AG232" s="12"/>
+      <c r="AH232" s="12"/>
+      <c r="AI232" s="12"/>
+      <c r="AJ232" s="12"/>
+      <c r="AK232" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="Q1:T1"/>
@@ -13386,7 +13965,7 @@
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E222 G3:G222 I3:I222 K3:K222 M3:M222 O3:O222 Q3:Q222 S3:S222 U3:U222 W3:W222 Y3:Y222 AA3:AA222 AC3:AC222 AE3:AE222 AG3:AG222 AI3:AI222">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E232 G3:G232 I3:I232 K3:K232 M3:M232 O3:O232 Q3:Q232 S3:S232 U3:U232 W3:W232 Y3:Y232 AA3:AA232 AC3:AC232 AE3:AE232 AG3:AG232 AI3:AI232">
       <formula1>'Rule types'!$A$3:$A$100</formula1>
     </dataValidation>
   </dataValidations>
@@ -13406,7 +13985,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3">
@@ -13416,12 +13995,12 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6">
@@ -13431,97 +14010,97 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26">
@@ -13531,7 +14110,7 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28">
@@ -13546,7 +14125,7 @@
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -13572,7 +14151,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/concepts/climate-related-hazards/input.xlsx
+++ b/concepts/climate-related-hazards/input.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyan/Documents/CPR/global-stocktake/concepts/climate-related-hazards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E32F3-BD65-1B4C-A232-80026C4371F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FAD85F-20D1-594C-AA23-5B9DEB5055BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7660" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="20840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Rule types" sheetId="2" r:id="rId2"/>
-    <sheet name="Entity types" sheetId="3" r:id="rId3"/>
+    <sheet name="new terms" sheetId="4" r:id="rId2"/>
+    <sheet name="Rule types" sheetId="2" r:id="rId3"/>
+    <sheet name="Entity types" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="512">
   <si>
     <t>Pattern name (optional)</t>
   </si>
@@ -153,9 +154,6 @@
     <t>extreme</t>
   </si>
   <si>
-    <t>weather</t>
-  </si>
-  <si>
     <t>sudden</t>
   </si>
   <si>
@@ -1297,9 +1295,6 @@
   </si>
   <si>
     <t>failure,fail,collapse,breach</t>
-  </si>
-  <si>
-    <t>failure,collapse,breach</t>
   </si>
   <si>
     <t>of,in</t>
@@ -1434,6 +1429,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> For any rules ending in _</t>
@@ -1452,6 +1448,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, values should be comma-separated. </t>
@@ -1536,12 +1533,90 @@
   <si>
     <t>https://spacy.io/models/en#en_core_web_sm-labels</t>
   </si>
+  <si>
+    <t>Coastal hazards</t>
+  </si>
+  <si>
+    <t>coastal</t>
+  </si>
+  <si>
+    <t>coastal hazards</t>
+  </si>
+  <si>
+    <t>failure,collapse,breach,breakdown</t>
+  </si>
+  <si>
+    <t>breakdown of infrastructure</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>climate-related hazards</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>exceptionally</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>weather,precipitation,temperature,heat,rain,storm</t>
+  </si>
+  <si>
+    <t>extreme heat/precipitation/rain/temperature(s)/storm(s)</t>
+  </si>
+  <si>
+    <t>interrupted</t>
+  </si>
+  <si>
+    <t>electricity,power</t>
+  </si>
+  <si>
+    <t>rise,increase,change</t>
+  </si>
+  <si>
+    <t>sea level change</t>
+  </si>
+  <si>
+    <t>Sea ice loss</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>temperature extremes</t>
+  </si>
+  <si>
+    <t>torrential</t>
+  </si>
+  <si>
+    <t>rain,rainfall,precipitation</t>
+  </si>
+  <si>
+    <t>torrential rain/rainfall/precipitation</t>
+  </si>
+  <si>
+    <t>weather extremes</t>
+  </si>
+  <si>
+    <t>temperature/weather/precipitation/rainfall/heat extremes</t>
+  </si>
+  <si>
+    <t>temperature,weather,rainfall,precipitation,heat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1603,6 +1678,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1642,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1658,16 +1740,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1886,10 +1969,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK232"/>
+  <dimension ref="A1:AK239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F212" sqref="F212"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1904,16 +1987,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -1946,19 +2029,19 @@
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="AD1" s="10"/>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AH1" s="10"/>
@@ -2542,7 +2625,7 @@
         <v>22</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>38</v>
+        <v>501</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -2685,17 +2768,17 @@
     <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>503</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2703,12 +2786,16 @@
         <v>17</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>43</v>
+        <v>504</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -2746,28 +2833,20 @@
         <v>17</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -2799,26 +2878,34 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -2850,21 +2937,21 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>52</v>
+        <v>506</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>50</v>
+        <v>507</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -2901,21 +2988,21 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>53</v>
+        <v>509</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>52</v>
+        <v>511</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -2952,13 +3039,13 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -2966,7 +3053,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -3003,18 +3090,22 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -3050,18 +3141,22 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -3097,13 +3192,13 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -3111,7 +3206,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -3148,13 +3243,13 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3195,13 +3290,13 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -3242,18 +3337,22 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -3289,22 +3388,18 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -3340,22 +3435,18 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3391,13 +3482,13 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -3438,21 +3529,21 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -3489,13 +3580,13 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -3503,7 +3594,7 @@
         <v>17</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -3540,22 +3631,18 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -3591,18 +3678,22 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="I32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -3638,13 +3729,13 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -3652,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -3689,42 +3780,30 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -3752,13 +3831,13 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -3799,13 +3878,13 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -3813,7 +3892,7 @@
         <v>17</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -3850,30 +3929,42 @@
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="Q37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
@@ -3901,13 +3992,13 @@
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -3948,18 +4039,22 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -3995,18 +4090,22 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>95</v>
+        <v>495</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -4042,18 +4141,22 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -4089,13 +4192,13 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -4136,13 +4239,13 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -4183,22 +4286,18 @@
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -4234,13 +4333,13 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -4281,13 +4380,13 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -4328,13 +4427,13 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -4375,18 +4474,22 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="I48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -4422,22 +4525,18 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -4473,30 +4572,22 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -4528,13 +4619,13 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -4575,22 +4666,18 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -4626,21 +4713,21 @@
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -4677,22 +4764,30 @@
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
+      <c r="M54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
@@ -4720,26 +4815,22 @@
     <row r="55" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -4771,22 +4862,26 @@
     <row r="56" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -4818,25 +4913,25 @@
     <row r="57" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -4869,17 +4964,17 @@
     <row r="58" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -4916,17 +5011,17 @@
     <row r="59" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -4934,7 +5029,7 @@
         <v>17</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -4967,46 +5062,30 @@
     <row r="60" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
-      <c r="Q60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
@@ -5030,17 +5109,17 @@
     <row r="61" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -5048,7 +5127,7 @@
         <v>17</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -5081,17 +5160,17 @@
     <row r="62" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -5125,20 +5204,20 @@
       <c r="AJ62" s="6"/>
       <c r="AK62" s="6"/>
     </row>
-    <row r="63" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -5146,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
@@ -5176,37 +5255,49 @@
       <c r="AJ63" s="6"/>
       <c r="AK63" s="6"/>
     </row>
-    <row r="64" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
+      <c r="Q64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
@@ -5227,20 +5318,20 @@
       <c r="AJ64" s="6"/>
       <c r="AK64" s="6"/>
     </row>
-    <row r="65" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -5248,7 +5339,7 @@
         <v>17</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -5278,29 +5369,25 @@
       <c r="AJ65" s="6"/>
       <c r="AK65" s="6"/>
     </row>
-    <row r="66" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -5332,22 +5419,26 @@
     <row r="67" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="I67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -5379,17 +5470,17 @@
     <row r="68" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -5397,7 +5488,7 @@
         <v>17</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -5430,17 +5521,17 @@
     <row r="69" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -5448,7 +5539,7 @@
         <v>17</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -5481,17 +5572,17 @@
     <row r="70" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -5499,28 +5590,16 @@
         <v>17</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N70" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O70" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P70" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>143</v>
-      </c>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
@@ -5544,26 +5623,22 @@
     <row r="71" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -5595,17 +5670,17 @@
     <row r="72" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -5613,16 +5688,12 @@
         <v>17</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N72" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -5650,22 +5721,26 @@
     <row r="73" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
+      <c r="I73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -5697,17 +5772,17 @@
     <row r="74" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -5715,16 +5790,28 @@
         <v>17</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
+      <c r="M74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
@@ -5748,46 +5835,34 @@
     <row r="75" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N75" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O75" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P75" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R75" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
@@ -5811,17 +5886,17 @@
     <row r="76" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -5829,7 +5904,7 @@
         <v>17</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
@@ -5837,7 +5912,7 @@
         <v>17</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
@@ -5866,26 +5941,22 @@
     <row r="77" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -5917,17 +5988,17 @@
     <row r="78" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -5935,7 +6006,7 @@
         <v>17</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -5968,17 +6039,17 @@
     <row r="79" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -6006,7 +6077,7 @@
         <v>19</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
@@ -6031,17 +6102,17 @@
     <row r="80" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -6049,12 +6120,16 @@
         <v>17</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
+      <c r="M80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
@@ -6082,17 +6157,17 @@
     <row r="81" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -6100,28 +6175,16 @@
         <v>17</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O81" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P81" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
@@ -6145,17 +6208,17 @@
     <row r="82" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -6163,7 +6226,7 @@
         <v>17</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -6196,17 +6259,17 @@
     <row r="83" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -6214,16 +6277,28 @@
         <v>17</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
+      <c r="M83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
@@ -6247,25 +6322,25 @@
     <row r="84" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -6298,25 +6373,25 @@
     <row r="85" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -6324,12 +6399,20 @@
         <v>17</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
@@ -6353,17 +6436,17 @@
     <row r="86" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -6371,16 +6454,12 @@
         <v>17</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>167</v>
-      </c>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -6408,42 +6487,34 @@
     <row r="87" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N87" s="6" t="s">
-        <v>165</v>
-      </c>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
-      <c r="Q87" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
@@ -6467,25 +6538,25 @@
     <row r="88" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
@@ -6518,30 +6589,34 @@
     <row r="89" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
+      <c r="M89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
@@ -6569,26 +6644,34 @@
     <row r="90" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="I90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
+      <c r="M90" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
@@ -6616,34 +6699,42 @@
     <row r="91" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
+      <c r="M91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
+      <c r="Q91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
@@ -6667,17 +6758,17 @@
     <row r="92" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -6685,7 +6776,7 @@
         <v>17</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
@@ -6718,17 +6809,17 @@
     <row r="93" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -6736,7 +6827,7 @@
         <v>17</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
@@ -6769,26 +6860,22 @@
     <row r="94" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
-      <c r="I94" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -6820,17 +6907,17 @@
     <row r="95" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -6838,7 +6925,7 @@
         <v>17</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
@@ -6871,17 +6958,17 @@
     <row r="96" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -6889,16 +6976,12 @@
         <v>17</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N96" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
@@ -6926,22 +7009,26 @@
     <row r="97" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
+      <c r="I97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -6973,17 +7060,17 @@
     <row r="98" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -6991,7 +7078,7 @@
         <v>17</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
@@ -7024,22 +7111,26 @@
     <row r="99" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="I99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
@@ -7071,17 +7162,17 @@
     <row r="100" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -7089,12 +7180,16 @@
         <v>17</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
+      <c r="M100" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
@@ -7122,26 +7217,22 @@
     <row r="101" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
-      <c r="I101" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
@@ -7173,22 +7264,26 @@
     <row r="102" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
+      <c r="I102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
@@ -7220,26 +7315,22 @@
     <row r="103" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
-      <c r="I103" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -7271,22 +7362,26 @@
     <row r="104" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="I104" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -7318,17 +7413,17 @@
     <row r="105" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -7336,7 +7431,7 @@
         <v>17</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
@@ -7369,17 +7464,17 @@
     <row r="106" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -7416,17 +7511,17 @@
     <row r="107" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -7434,7 +7529,7 @@
         <v>17</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -7467,34 +7562,26 @@
     <row r="108" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
-      <c r="I108" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N108" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
@@ -7522,22 +7609,26 @@
     <row r="109" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
+      <c r="I109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
@@ -7569,46 +7660,30 @@
     <row r="110" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
       <c r="B110" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
-      <c r="I110" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N110" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O110" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P110" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R110" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
@@ -7632,17 +7707,17 @@
     <row r="111" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -7650,7 +7725,7 @@
         <v>17</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
@@ -7683,17 +7758,17 @@
     <row r="112" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -7701,12 +7776,16 @@
         <v>17</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
+      <c r="M112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
@@ -7734,46 +7813,30 @@
     <row r="113" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
-      <c r="I113" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
-      <c r="M113" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N113" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O113" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P113" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q113" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R113" s="6" t="s">
-        <v>207</v>
-      </c>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
@@ -7797,17 +7860,17 @@
     <row r="114" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -7815,16 +7878,28 @@
         <v>17</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
+      <c r="M114" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O114" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q114" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
@@ -7848,17 +7923,17 @@
     <row r="115" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -7866,7 +7941,7 @@
         <v>17</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
@@ -7899,17 +7974,17 @@
     <row r="116" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
       <c r="B116" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -7917,28 +7992,16 @@
         <v>17</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N116" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O116" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P116" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q116" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R116" s="6" t="s">
-        <v>209</v>
-      </c>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
@@ -7962,17 +8025,17 @@
     <row r="117" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
       <c r="B117" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -7980,16 +8043,28 @@
         <v>17</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
+      <c r="M117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O117" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P117" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
@@ -8013,17 +8088,17 @@
     <row r="118" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -8031,28 +8106,16 @@
         <v>17</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N118" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O118" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P118" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q118" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R118" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
@@ -8076,25 +8139,25 @@
     <row r="119" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
@@ -8127,17 +8190,17 @@
     <row r="120" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -8162,10 +8225,10 @@
         <v>28</v>
       </c>
       <c r="Q120" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R120" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
@@ -8190,25 +8253,25 @@
     <row r="121" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
@@ -8241,17 +8304,17 @@
     <row r="122" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -8264,15 +8327,23 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O122" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P122" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q122" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N122" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="O122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6"/>
+      <c r="R122" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
@@ -8296,22 +8367,26 @@
     <row r="123" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
+      <c r="I123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
@@ -8343,34 +8418,46 @@
     <row r="124" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6"/>
+      <c r="M124" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O124" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P124" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q124" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R124" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
@@ -8394,17 +8481,17 @@
     <row r="125" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>224</v>
+        <v>486</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>226</v>
+        <v>487</v>
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -8412,7 +8499,7 @@
         <v>19</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
@@ -8445,25 +8532,25 @@
     <row r="126" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
@@ -8496,17 +8583,17 @@
     <row r="127" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="5" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -8514,12 +8601,16 @@
         <v>17</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
+      <c r="M127" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
@@ -8547,34 +8638,26 @@
     <row r="128" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
-      <c r="I128" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
-      <c r="M128" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N128" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
@@ -8602,38 +8685,30 @@
     <row r="129" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="5" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K129" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L129" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M129" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N129" s="6" t="s">
-        <v>235</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
@@ -8661,34 +8736,30 @@
     <row r="130" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="5" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
-      <c r="M130" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N130" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
@@ -8716,42 +8787,34 @@
     <row r="131" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="5" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
-      <c r="M131" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N131" s="6" t="s">
-        <v>237</v>
-      </c>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
-      <c r="Q131" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R131" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
@@ -8775,22 +8838,26 @@
     <row r="132" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
+      <c r="I132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
@@ -8822,17 +8889,17 @@
     <row r="133" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -8840,12 +8907,16 @@
         <v>17</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
+      <c r="M133" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N133" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="O133" s="6"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
@@ -8873,26 +8944,38 @@
     <row r="134" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
+      <c r="I134" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
@@ -8920,30 +9003,34 @@
     <row r="135" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
       <c r="B135" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
+      <c r="M135" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="O135" s="6"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
@@ -8971,45 +9058,41 @@
     <row r="136" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
       <c r="B136" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K136" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L136" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
       <c r="M136" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R136" s="6" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="S136" s="6"/>
       <c r="T136" s="6"/>
@@ -9034,26 +9117,22 @@
     <row r="137" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
       <c r="B137" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
-      <c r="I137" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
@@ -9085,17 +9164,17 @@
     <row r="138" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
       <c r="B138" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -9103,16 +9182,12 @@
         <v>17</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
-      <c r="M138" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N138" s="6" t="s">
-        <v>254</v>
-      </c>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
       <c r="O138" s="6"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
@@ -9140,34 +9215,26 @@
     <row r="139" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
       <c r="B139" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
-      <c r="I139" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>257</v>
-      </c>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
-      <c r="M139" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N139" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
@@ -9195,46 +9262,34 @@
     <row r="140" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
       <c r="B140" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K140" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L140" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M140" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N140" s="6" t="s">
-        <v>260</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
-      <c r="Q140" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R140" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
       <c r="S140" s="6"/>
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
@@ -9258,25 +9313,25 @@
     <row r="141" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
       <c r="B141" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J141" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="K141" s="6" t="s">
         <v>27</v>
@@ -9288,15 +9343,15 @@
         <v>17</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O141" s="6"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="S141" s="6"/>
       <c r="T141" s="6"/>
@@ -9321,17 +9376,17 @@
     <row r="142" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
       <c r="B142" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -9339,16 +9394,12 @@
         <v>17</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
-      <c r="M142" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N142" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
@@ -9376,17 +9427,17 @@
     <row r="143" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
       <c r="B143" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -9394,15 +9445,15 @@
         <v>17</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="O143" s="6"/>
       <c r="P143" s="6"/>
@@ -9431,17 +9482,17 @@
     <row r="144" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
       <c r="B144" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -9449,12 +9500,16 @@
         <v>17</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
+      <c r="M144" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="O144" s="6"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
@@ -9482,34 +9537,46 @@
     <row r="145" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
       <c r="B145" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="O145" s="6"/>
       <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
-      <c r="R145" s="6"/>
+      <c r="Q145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R145" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="S145" s="6"/>
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
@@ -9533,34 +9600,46 @@
     <row r="146" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="O146" s="6"/>
       <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
-      <c r="R146" s="6"/>
+      <c r="Q146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R146" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="S146" s="6"/>
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
@@ -9584,17 +9663,17 @@
     <row r="147" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
       <c r="B147" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -9602,12 +9681,16 @@
         <v>17</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
+      <c r="M147" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="O147" s="6"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
@@ -9635,17 +9718,17 @@
     <row r="148" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
       <c r="B148" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
@@ -9653,12 +9736,16 @@
         <v>17</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
+      <c r="M148" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N148" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="O148" s="6"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
@@ -9686,44 +9773,32 @@
     <row r="149" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
       <c r="B149" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="H149" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
       <c r="I149" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
-      <c r="M149" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N149" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O149" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="P149" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
@@ -9749,22 +9824,26 @@
     <row r="150" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
       <c r="B150" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
+      <c r="I150" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
@@ -9796,26 +9875,26 @@
     <row r="151" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
       <c r="B151" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="H151" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
+        <v>275</v>
+      </c>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
@@ -9847,26 +9926,26 @@
     <row r="152" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="H152" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
@@ -9898,22 +9977,26 @@
     <row r="153" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
       <c r="B153" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
+      <c r="I153" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
@@ -9945,28 +10028,44 @@
     <row r="154" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
       <c r="B154" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+        <v>282</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H154" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
+      <c r="M154" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="O154" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="P154" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="6"/>
       <c r="S154" s="6"/>
@@ -9992,17 +10091,17 @@
     <row r="155" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
       <c r="B155" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -10039,26 +10138,26 @@
     <row r="156" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
       <c r="B156" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>266</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H156" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
@@ -10090,26 +10189,26 @@
     <row r="157" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
       <c r="B157" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>266</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H157" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
@@ -10141,26 +10240,22 @@
     <row r="158" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
       <c r="B158" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
-      <c r="I158" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J158" s="6" t="s">
-        <v>298</v>
-      </c>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
@@ -10192,26 +10287,22 @@
     <row r="159" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
       <c r="B159" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
-      <c r="I159" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>301</v>
-      </c>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
@@ -10243,17 +10334,17 @@
     <row r="160" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
       <c r="B160" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
@@ -10290,22 +10381,26 @@
     <row r="161" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
       <c r="B161" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
+      <c r="I161" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
@@ -10337,17 +10432,17 @@
     <row r="162" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
       <c r="B162" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -10355,7 +10450,7 @@
         <v>17</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
@@ -10388,17 +10483,17 @@
     <row r="163" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
       <c r="B163" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
@@ -10406,7 +10501,7 @@
         <v>17</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
@@ -10439,17 +10534,17 @@
     <row r="164" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
       <c r="B164" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -10457,7 +10552,7 @@
         <v>17</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
@@ -10490,17 +10585,17 @@
     <row r="165" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
       <c r="B165" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
@@ -10537,17 +10632,17 @@
     <row r="166" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
       <c r="B166" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
@@ -10584,22 +10679,26 @@
     <row r="167" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
       <c r="B167" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
+      <c r="I167" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
@@ -10631,22 +10730,26 @@
     <row r="168" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
       <c r="B168" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
+      <c r="I168" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
@@ -10678,22 +10781,26 @@
     <row r="169" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
       <c r="B169" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
+      <c r="I169" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
@@ -10725,26 +10832,22 @@
     <row r="170" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
       <c r="B170" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
-      <c r="I170" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J170" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
@@ -10776,17 +10879,17 @@
     <row r="171" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
       <c r="B171" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
@@ -10823,17 +10926,17 @@
     <row r="172" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
       <c r="B172" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
@@ -10870,26 +10973,22 @@
     <row r="173" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
       <c r="B173" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
-      <c r="I173" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>332</v>
-      </c>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
@@ -10921,17 +11020,17 @@
     <row r="174" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
       <c r="B174" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
@@ -10968,22 +11067,26 @@
     <row r="175" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
       <c r="B175" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
+      <c r="I175" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
       <c r="M175" s="6"/>
@@ -11015,17 +11118,17 @@
     <row r="176" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
       <c r="B176" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
@@ -11062,42 +11165,30 @@
     <row r="177" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
       <c r="B177" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
-      <c r="I177" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J177" s="6" t="s">
-        <v>285</v>
-      </c>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
-      <c r="M177" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N177" s="6" t="s">
-        <v>341</v>
-      </c>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
       <c r="O177" s="6"/>
       <c r="P177" s="6"/>
-      <c r="Q177" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R177" s="6" t="s">
-        <v>342</v>
-      </c>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
@@ -11121,17 +11212,17 @@
     <row r="178" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
       <c r="B178" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
@@ -11139,7 +11230,7 @@
         <v>17</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
@@ -11172,17 +11263,17 @@
     <row r="179" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
       <c r="B179" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
@@ -11219,17 +11310,17 @@
     <row r="180" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
       <c r="B180" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
@@ -11266,34 +11357,26 @@
     <row r="181" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
       <c r="B181" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
-      <c r="I181" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J181" s="6" t="s">
-        <v>265</v>
-      </c>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
-      <c r="M181" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N181" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
       <c r="O181" s="6"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
@@ -11321,30 +11404,42 @@
     <row r="182" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
       <c r="B182" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
+      <c r="I182" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
+      <c r="M182" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N182" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="O182" s="6"/>
       <c r="P182" s="6"/>
-      <c r="Q182" s="6"/>
-      <c r="R182" s="6"/>
+      <c r="Q182" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R182" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
@@ -11368,17 +11463,17 @@
     <row r="183" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
       <c r="B183" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
@@ -11386,7 +11481,7 @@
         <v>17</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
@@ -11419,17 +11514,17 @@
     <row r="184" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
       <c r="B184" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
@@ -11466,42 +11561,30 @@
     <row r="185" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
       <c r="B185" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
-      <c r="I185" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J185" s="6" t="s">
-        <v>359</v>
-      </c>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
-      <c r="M185" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N185" s="6" t="s">
-        <v>360</v>
-      </c>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
       <c r="O185" s="6"/>
       <c r="P185" s="6"/>
-      <c r="Q185" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R185" s="6" t="s">
-        <v>361</v>
-      </c>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
       <c r="S185" s="6"/>
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
@@ -11525,26 +11608,34 @@
     <row r="186" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
       <c r="B186" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
+      <c r="I186" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
+      <c r="M186" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N186" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
@@ -11572,17 +11663,17 @@
     <row r="187" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
       <c r="B187" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
@@ -11619,17 +11710,17 @@
     <row r="188" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
       <c r="B188" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
@@ -11637,24 +11728,16 @@
         <v>17</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>368</v>
+        <v>265</v>
       </c>
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
-      <c r="M188" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N188" s="6" t="s">
-        <v>360</v>
-      </c>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
       <c r="O188" s="6"/>
       <c r="P188" s="6"/>
-      <c r="Q188" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R188" s="6" t="s">
-        <v>361</v>
-      </c>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
@@ -11678,17 +11761,17 @@
     <row r="189" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
       <c r="B189" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
@@ -11725,30 +11808,42 @@
     <row r="190" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
       <c r="B190" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
+      <c r="I190" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
-      <c r="M190" s="6"/>
-      <c r="N190" s="6"/>
+      <c r="M190" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N190" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="O190" s="6"/>
       <c r="P190" s="6"/>
-      <c r="Q190" s="6"/>
-      <c r="R190" s="6"/>
+      <c r="Q190" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R190" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="S190" s="6"/>
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
@@ -11772,34 +11867,26 @@
     <row r="191" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
       <c r="B191" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
-      <c r="I191" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J191" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
-      <c r="M191" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N191" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
       <c r="O191" s="6"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
@@ -11827,26 +11914,22 @@
     <row r="192" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
       <c r="B192" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
-      <c r="I192" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J192" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
@@ -11878,30 +11961,42 @@
     <row r="193" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
       <c r="B193" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
+      <c r="I193" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>367</v>
+      </c>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
-      <c r="M193" s="6"/>
-      <c r="N193" s="6"/>
+      <c r="M193" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N193" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="O193" s="6"/>
       <c r="P193" s="6"/>
-      <c r="Q193" s="6"/>
-      <c r="R193" s="6"/>
+      <c r="Q193" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R193" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="S193" s="6"/>
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
@@ -11925,34 +12020,26 @@
     <row r="194" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
       <c r="B194" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
-      <c r="I194" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J194" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
-      <c r="M194" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N194" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
       <c r="O194" s="6"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
@@ -11980,34 +12067,26 @@
     <row r="195" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
       <c r="B195" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
-      <c r="I195" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J195" s="6" t="s">
-        <v>383</v>
-      </c>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
-      <c r="M195" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N195" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
       <c r="O195" s="6"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
@@ -12035,17 +12114,17 @@
     <row r="196" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
       <c r="B196" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -12053,7 +12132,7 @@
         <v>17</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
@@ -12061,7 +12140,7 @@
         <v>17</v>
       </c>
       <c r="N196" s="6" t="s">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="O196" s="6"/>
       <c r="P196" s="6"/>
@@ -12090,42 +12169,34 @@
     <row r="197" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
       <c r="B197" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
       <c r="I197" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
-      <c r="M197" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N197" s="6" t="s">
-        <v>389</v>
-      </c>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
       <c r="O197" s="6"/>
       <c r="P197" s="6"/>
-      <c r="Q197" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R197" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
       <c r="S197" s="6"/>
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
@@ -12149,34 +12220,26 @@
     <row r="198" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
       <c r="B198" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
-      <c r="I198" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J198" s="6" t="s">
-        <v>392</v>
-      </c>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
-      <c r="M198" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N198" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
       <c r="O198" s="6"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
@@ -12204,17 +12267,17 @@
     <row r="199" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
       <c r="B199" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -12222,7 +12285,7 @@
         <v>17</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
@@ -12230,7 +12293,7 @@
         <v>17</v>
       </c>
       <c r="N199" s="6" t="s">
-        <v>396</v>
+        <v>265</v>
       </c>
       <c r="O199" s="6"/>
       <c r="P199" s="6"/>
@@ -12259,17 +12322,17 @@
     <row r="200" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
       <c r="B200" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -12277,7 +12340,7 @@
         <v>17</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>235</v>
+        <v>382</v>
       </c>
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
@@ -12285,7 +12348,7 @@
         <v>17</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="O200" s="6"/>
       <c r="P200" s="6"/>
@@ -12314,17 +12377,17 @@
     <row r="201" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
       <c r="B201" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
@@ -12332,7 +12395,7 @@
         <v>17</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="K201" s="6"/>
       <c r="L201" s="6"/>
@@ -12340,16 +12403,12 @@
         <v>17</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="O201" s="6"/>
       <c r="P201" s="6"/>
-      <c r="Q201" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R201" s="6" t="s">
-        <v>403</v>
-      </c>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
       <c r="S201" s="6"/>
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
@@ -12373,17 +12432,17 @@
     <row r="202" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
       <c r="B202" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
@@ -12391,16 +12450,24 @@
         <v>17</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="K202" s="6"/>
       <c r="L202" s="6"/>
-      <c r="M202" s="6"/>
-      <c r="N202" s="6"/>
+      <c r="M202" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N202" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="O202" s="6"/>
       <c r="P202" s="6"/>
-      <c r="Q202" s="6"/>
-      <c r="R202" s="6"/>
+      <c r="Q202" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R202" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="S202" s="6"/>
       <c r="T202" s="6"/>
       <c r="U202" s="6"/>
@@ -12424,17 +12491,17 @@
     <row r="203" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
       <c r="B203" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -12442,15 +12509,15 @@
         <v>17</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
       <c r="M203" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N203" s="6" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="O203" s="6"/>
       <c r="P203" s="6"/>
@@ -12479,26 +12546,34 @@
     <row r="204" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
       <c r="B204" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
-      <c r="I204" s="6"/>
-      <c r="J204" s="6"/>
+      <c r="I204" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="K204" s="6"/>
       <c r="L204" s="6"/>
-      <c r="M204" s="6"/>
-      <c r="N204" s="6"/>
+      <c r="M204" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N204" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="O204" s="6"/>
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
@@ -12526,17 +12601,17 @@
     <row r="205" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
       <c r="B205" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -12544,7 +12619,7 @@
         <v>17</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>413</v>
+        <v>234</v>
       </c>
       <c r="K205" s="6"/>
       <c r="L205" s="6"/>
@@ -12552,7 +12627,7 @@
         <v>17</v>
       </c>
       <c r="N205" s="6" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="O205" s="6"/>
       <c r="P205" s="6"/>
@@ -12581,30 +12656,42 @@
     <row r="206" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
       <c r="B206" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
-      <c r="I206" s="6"/>
-      <c r="J206" s="6"/>
+      <c r="I206" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>400</v>
+      </c>
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
-      <c r="M206" s="6"/>
-      <c r="N206" s="6"/>
+      <c r="M206" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N206" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="O206" s="6"/>
       <c r="P206" s="6"/>
-      <c r="Q206" s="6"/>
-      <c r="R206" s="6"/>
+      <c r="Q206" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R206" s="6" t="s">
+        <v>402</v>
+      </c>
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
@@ -12628,22 +12715,26 @@
     <row r="207" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
       <c r="B207" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
-      <c r="I207" s="6"/>
-      <c r="J207" s="6"/>
+      <c r="I207" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
@@ -12675,17 +12766,17 @@
     <row r="208" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
       <c r="B208" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
@@ -12693,12 +12784,16 @@
         <v>17</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>235</v>
+        <v>407</v>
       </c>
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
-      <c r="M208" s="6"/>
-      <c r="N208" s="6"/>
+      <c r="M208" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N208" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="O208" s="6"/>
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
@@ -12726,26 +12821,22 @@
     <row r="209" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
       <c r="B209" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
-      <c r="I209" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J209" s="6" t="s">
-        <v>235</v>
-      </c>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
@@ -12777,30 +12868,34 @@
     <row r="210" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
       <c r="B210" s="5" t="s">
-        <v>422</v>
+        <v>229</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
       <c r="I210" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K210" s="6"/>
       <c r="L210" s="6"/>
-      <c r="M210" s="6"/>
-      <c r="N210" s="6"/>
+      <c r="M210" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N210" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="O210" s="6"/>
       <c r="P210" s="6"/>
       <c r="Q210" s="6"/>
@@ -12828,34 +12923,26 @@
     <row r="211" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
       <c r="B211" s="5" t="s">
-        <v>422</v>
+        <v>229</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
-      <c r="I211" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J211" s="6" t="s">
-        <v>426</v>
-      </c>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
-      <c r="M211" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N211" s="6" t="s">
-        <v>423</v>
-      </c>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
       <c r="O211" s="6"/>
       <c r="P211" s="6"/>
       <c r="Q211" s="6"/>
@@ -12883,42 +12970,30 @@
     <row r="212" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
       <c r="B212" s="5" t="s">
-        <v>422</v>
+        <v>229</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
-      <c r="I212" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J212" s="6" t="s">
-        <v>426</v>
-      </c>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
-      <c r="M212" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N212" s="6" t="s">
-        <v>427</v>
-      </c>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
       <c r="O212" s="6"/>
       <c r="P212" s="6"/>
-      <c r="Q212" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R212" s="6" t="s">
-        <v>423</v>
-      </c>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
@@ -12942,25 +13017,25 @@
     <row r="213" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
       <c r="B213" s="5" t="s">
-        <v>422</v>
+        <v>229</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
       <c r="I213" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>430</v>
+        <v>234</v>
       </c>
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
@@ -12993,17 +13068,17 @@
     <row r="214" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
       <c r="B214" s="5" t="s">
-        <v>422</v>
+        <v>229</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
@@ -13011,16 +13086,12 @@
         <v>17</v>
       </c>
       <c r="J214" s="6" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="K214" s="6"/>
       <c r="L214" s="6"/>
-      <c r="M214" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N214" s="6" t="s">
-        <v>432</v>
-      </c>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
       <c r="O214" s="6"/>
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
@@ -13048,17 +13119,17 @@
     <row r="215" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
       <c r="B215" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
@@ -13066,7 +13137,7 @@
         <v>22</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
@@ -13099,33 +13170,33 @@
     <row r="216" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
       <c r="B216" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
       <c r="I216" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>25</v>
+        <v>424</v>
       </c>
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
       <c r="M216" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="O216" s="6"/>
       <c r="P216" s="6"/>
@@ -13154,17 +13225,17 @@
     <row r="217" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
       <c r="B217" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
@@ -13172,16 +13243,24 @@
         <v>22</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
-      <c r="M217" s="6"/>
-      <c r="N217" s="6"/>
+      <c r="M217" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N217" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="O217" s="6"/>
       <c r="P217" s="6"/>
-      <c r="Q217" s="6"/>
-      <c r="R217" s="6"/>
+      <c r="Q217" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R217" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="S217" s="6"/>
       <c r="T217" s="6"/>
       <c r="U217" s="6"/>
@@ -13205,17 +13284,17 @@
     <row r="218" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
       <c r="B218" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
@@ -13223,16 +13302,12 @@
         <v>22</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
-      <c r="M218" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N218" s="6" t="s">
-        <v>437</v>
-      </c>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
       <c r="O218" s="6"/>
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
@@ -13260,17 +13335,17 @@
     <row r="219" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
       <c r="B219" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
@@ -13278,15 +13353,15 @@
         <v>17</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>441</v>
+        <v>25</v>
       </c>
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
       <c r="M219" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N219" s="6" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
@@ -13315,54 +13390,38 @@
     <row r="220" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
       <c r="B220" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
       <c r="I220" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>25</v>
+        <v>433</v>
       </c>
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
-      <c r="M220" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N220" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O220" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P220" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q220" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R220" s="6" t="s">
-        <v>440</v>
-      </c>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
-      <c r="U220" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="V220" s="6" t="s">
-        <v>441</v>
-      </c>
+      <c r="U220" s="6"/>
+      <c r="V220" s="6"/>
       <c r="W220" s="6"/>
       <c r="X220" s="6"/>
       <c r="Y220" s="6"/>
@@ -13382,17 +13441,17 @@
     <row r="221" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
       <c r="B221" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
@@ -13400,7 +13459,7 @@
         <v>17</v>
       </c>
       <c r="J221" s="6" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
@@ -13408,7 +13467,7 @@
         <v>19</v>
       </c>
       <c r="N221" s="6" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="O221" s="6"/>
       <c r="P221" s="6"/>
@@ -13437,42 +13496,34 @@
     <row r="222" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
       <c r="B222" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
       <c r="I222" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>25</v>
+        <v>436</v>
       </c>
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
-      <c r="M222" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N222" s="6" t="s">
-        <v>445</v>
-      </c>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
-      <c r="Q222" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R222" s="6" t="s">
-        <v>446</v>
-      </c>
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
       <c r="S222" s="6"/>
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
@@ -13496,17 +13547,17 @@
     <row r="223" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
       <c r="B223" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="G223" s="6"/>
       <c r="H223" s="6"/>
@@ -13514,12 +13565,16 @@
         <v>22</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
-      <c r="M223" s="6"/>
-      <c r="N223" s="6"/>
+      <c r="M223" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N223" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="O223" s="6"/>
       <c r="P223" s="6"/>
       <c r="Q223" s="6"/>
@@ -13547,26 +13602,34 @@
     <row r="224" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
       <c r="B224" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
-      <c r="I224" s="6"/>
-      <c r="J224" s="6"/>
+      <c r="I224" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J224" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
-      <c r="M224" s="6"/>
-      <c r="N224" s="6"/>
+      <c r="M224" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N224" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="O224" s="6"/>
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
@@ -13594,38 +13657,54 @@
     <row r="225" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
       <c r="B225" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
       <c r="I225" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>451</v>
+        <v>25</v>
       </c>
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
-      <c r="M225" s="6"/>
-      <c r="N225" s="6"/>
-      <c r="O225" s="6"/>
-      <c r="P225" s="6"/>
-      <c r="Q225" s="6"/>
-      <c r="R225" s="6"/>
+      <c r="M225" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N225" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O225" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P225" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q225" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R225" s="6" t="s">
+        <v>438</v>
+      </c>
       <c r="S225" s="6"/>
       <c r="T225" s="6"/>
-      <c r="U225" s="6"/>
-      <c r="V225" s="6"/>
+      <c r="U225" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V225" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="W225" s="6"/>
       <c r="X225" s="6"/>
       <c r="Y225" s="6"/>
@@ -13645,33 +13724,33 @@
     <row r="226" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
       <c r="B226" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
       <c r="I226" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J226" s="6" t="s">
-        <v>164</v>
+        <v>444</v>
       </c>
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
       <c r="M226" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N226" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="O226" s="6"/>
       <c r="P226" s="6"/>
@@ -13700,30 +13779,42 @@
     <row r="227" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
       <c r="B227" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
-      <c r="I227" s="6"/>
-      <c r="J227" s="6"/>
+      <c r="I227" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J227" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
-      <c r="M227" s="6"/>
-      <c r="N227" s="6"/>
+      <c r="M227" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N227" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="O227" s="6"/>
       <c r="P227" s="6"/>
-      <c r="Q227" s="6"/>
-      <c r="R227" s="6"/>
+      <c r="Q227" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R227" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="S227" s="6"/>
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
@@ -13747,25 +13838,25 @@
     <row r="228" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
       <c r="B228" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
       <c r="I228" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
@@ -13798,26 +13889,22 @@
     <row r="229" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
       <c r="B229" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
-      <c r="I229" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J229" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
@@ -13849,17 +13936,17 @@
     <row r="230" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
       <c r="B230" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
@@ -13867,7 +13954,7 @@
         <v>22</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
@@ -13900,46 +13987,34 @@
     <row r="231" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
       <c r="B231" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
       <c r="I231" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
-      <c r="M231" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N231" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O231" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P231" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q231" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R231" s="6" t="s">
-        <v>459</v>
-      </c>
+      <c r="M231" s="6"/>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="6"/>
+      <c r="R231" s="6"/>
       <c r="S231" s="6"/>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
@@ -13963,17 +14038,17 @@
     <row r="232" spans="1:37" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
       <c r="B232" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
@@ -13981,12 +14056,16 @@
         <v>22</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
-      <c r="M232" s="6"/>
-      <c r="N232" s="6"/>
+      <c r="M232" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N232" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
@@ -14011,8 +14090,365 @@
       <c r="AJ232" s="6"/>
       <c r="AK232" s="6"/>
     </row>
+    <row r="233" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A233" s="4"/>
+      <c r="B233" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+      <c r="Q233" s="6"/>
+      <c r="R233" s="6"/>
+      <c r="S233" s="6"/>
+      <c r="T233" s="6"/>
+      <c r="U233" s="6"/>
+      <c r="V233" s="6"/>
+      <c r="W233" s="6"/>
+      <c r="X233" s="6"/>
+      <c r="Y233" s="6"/>
+      <c r="Z233" s="6"/>
+      <c r="AA233" s="6"/>
+      <c r="AB233" s="6"/>
+      <c r="AC233" s="6"/>
+      <c r="AD233" s="6"/>
+      <c r="AE233" s="6"/>
+      <c r="AF233" s="6"/>
+      <c r="AG233" s="6"/>
+      <c r="AH233" s="6"/>
+      <c r="AI233" s="6"/>
+      <c r="AJ233" s="6"/>
+      <c r="AK233" s="6"/>
+    </row>
+    <row r="234" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A234" s="4"/>
+      <c r="B234" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J234" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+      <c r="N234" s="6"/>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
+      <c r="R234" s="6"/>
+      <c r="S234" s="6"/>
+      <c r="T234" s="6"/>
+      <c r="U234" s="6"/>
+      <c r="V234" s="6"/>
+      <c r="W234" s="6"/>
+      <c r="X234" s="6"/>
+      <c r="Y234" s="6"/>
+      <c r="Z234" s="6"/>
+      <c r="AA234" s="6"/>
+      <c r="AB234" s="6"/>
+      <c r="AC234" s="6"/>
+      <c r="AD234" s="6"/>
+      <c r="AE234" s="6"/>
+      <c r="AF234" s="6"/>
+      <c r="AG234" s="6"/>
+      <c r="AH234" s="6"/>
+      <c r="AI234" s="6"/>
+      <c r="AJ234" s="6"/>
+      <c r="AK234" s="6"/>
+    </row>
+    <row r="235" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A235" s="4"/>
+      <c r="B235" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J235" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+      <c r="R235" s="6"/>
+      <c r="S235" s="6"/>
+      <c r="T235" s="6"/>
+      <c r="U235" s="6"/>
+      <c r="V235" s="6"/>
+      <c r="W235" s="6"/>
+      <c r="X235" s="6"/>
+      <c r="Y235" s="6"/>
+      <c r="Z235" s="6"/>
+      <c r="AA235" s="6"/>
+      <c r="AB235" s="6"/>
+      <c r="AC235" s="6"/>
+      <c r="AD235" s="6"/>
+      <c r="AE235" s="6"/>
+      <c r="AF235" s="6"/>
+      <c r="AG235" s="6"/>
+      <c r="AH235" s="6"/>
+      <c r="AI235" s="6"/>
+      <c r="AJ235" s="6"/>
+      <c r="AK235" s="6"/>
+    </row>
+    <row r="236" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A236" s="4"/>
+      <c r="B236" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J236" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+      <c r="R236" s="6"/>
+      <c r="S236" s="6"/>
+      <c r="T236" s="6"/>
+      <c r="U236" s="6"/>
+      <c r="V236" s="6"/>
+      <c r="W236" s="6"/>
+      <c r="X236" s="6"/>
+      <c r="Y236" s="6"/>
+      <c r="Z236" s="6"/>
+      <c r="AA236" s="6"/>
+      <c r="AB236" s="6"/>
+      <c r="AC236" s="6"/>
+      <c r="AD236" s="6"/>
+      <c r="AE236" s="6"/>
+      <c r="AF236" s="6"/>
+      <c r="AG236" s="6"/>
+      <c r="AH236" s="6"/>
+      <c r="AI236" s="6"/>
+      <c r="AJ236" s="6"/>
+      <c r="AK236" s="6"/>
+    </row>
+    <row r="237" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A237" s="4"/>
+      <c r="B237" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J237" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N237" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O237" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P237" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q237" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R237" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="S237" s="6"/>
+      <c r="T237" s="6"/>
+      <c r="U237" s="6"/>
+      <c r="V237" s="6"/>
+      <c r="W237" s="6"/>
+      <c r="X237" s="6"/>
+      <c r="Y237" s="6"/>
+      <c r="Z237" s="6"/>
+      <c r="AA237" s="6"/>
+      <c r="AB237" s="6"/>
+      <c r="AC237" s="6"/>
+      <c r="AD237" s="6"/>
+      <c r="AE237" s="6"/>
+      <c r="AF237" s="6"/>
+      <c r="AG237" s="6"/>
+      <c r="AH237" s="6"/>
+      <c r="AI237" s="6"/>
+      <c r="AJ237" s="6"/>
+      <c r="AK237" s="6"/>
+    </row>
+    <row r="238" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A238" s="4"/>
+      <c r="B238" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J238" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="6"/>
+      <c r="V238" s="6"/>
+      <c r="W238" s="6"/>
+      <c r="X238" s="6"/>
+      <c r="Y238" s="6"/>
+      <c r="Z238" s="6"/>
+      <c r="AA238" s="6"/>
+      <c r="AB238" s="6"/>
+      <c r="AC238" s="6"/>
+      <c r="AD238" s="6"/>
+      <c r="AE238" s="6"/>
+      <c r="AF238" s="6"/>
+      <c r="AG238" s="6"/>
+      <c r="AH238" s="6"/>
+      <c r="AI238" s="6"/>
+      <c r="AJ238" s="6"/>
+      <c r="AK238" s="6"/>
+    </row>
+    <row r="239" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B239" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J239" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K239" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L239" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M239" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N239" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q239" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R239" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="A1:A2"/>
@@ -14020,11 +14456,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14035,7 +14466,7 @@
           <x14:formula1>
             <xm:f>'Rule types'!$A$3:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E232 G3:G232 I3:I232 K3:K232 M3:M232 O3:O232 Q3:Q232 S3:S232 U3:U232 W3:W232 Y3:Y232 AA3:AA232 AC3:AC232 AE3:AE232 AG3:AG232 AI3:AI232</xm:sqref>
+          <xm:sqref>E3:E238 G3:G238 I3:I239 K3:K239 M3:M238 O3:O238 Q3:Q238 S3:S238 U3:U238 W3:W238 Y3:Y238 AA3:AA238 AC3:AC238 AE3:AE238 AG3:AG238 AI3:AI238</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14044,6 +14475,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FF06E3-6547-8247-B0DD-0E59DFEAF351}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14056,7 +14542,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -14071,17 +14557,17 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14091,97 +14577,97 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14191,7 +14677,7 @@
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14206,7 +14692,7 @@
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -14220,7 +14706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14233,7 +14719,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
